--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_8_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_8_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3095909.333266577</v>
+        <v>3090583.42314836</v>
       </c>
     </row>
     <row r="7">
@@ -661,70 +661,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97.59782943789268</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="F2" t="n">
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="G2" t="n">
-        <v>119.5504549011779</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -791,10 +791,10 @@
         <v>135.7293992974318</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>29.45648664699747</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>37.74467096748101</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>60.09378870120892</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>60.09378870120887</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V4" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="W4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>135.7293992974318</v>
+        <v>29.81855126207272</v>
       </c>
       <c r="G5" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="H5" t="n">
-        <v>29.81855126207271</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>91.02545209080849</v>
       </c>
       <c r="E6" t="n">
         <v>135.7293992974318</v>
@@ -989,7 +989,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>31.83902587480485</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1068,49 +1068,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>119.5504549011778</v>
+      </c>
+      <c r="S7" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="H7" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>59.456666199969</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>38.15196793284785</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="U7" t="n">
-        <v>21.94182076836087</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="F8" t="n">
-        <v>119.5504549011779</v>
       </c>
       <c r="G8" t="n">
         <v>135.7293992974318</v>
@@ -1153,55 +1153,55 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>119.5504549011779</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="T9" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="U9" t="n">
-        <v>60.36402868517425</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C10" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="E10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>81.39848696832989</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>135.7293992974318</v>
+        <v>21.94182076836087</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>19.37533026300422</v>
       </c>
       <c r="D11" t="n">
         <v>265.1930295256954</v>
@@ -1387,7 +1387,7 @@
         <v>307.5706534574077</v>
       </c>
       <c r="H11" t="n">
-        <v>220.7810993966899</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.75303416897351</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>116.1569976096678</v>
       </c>
       <c r="U11" t="n">
         <v>148.3962195139052</v>
@@ -1432,13 +1432,13 @@
         <v>229.7067857636648</v>
       </c>
       <c r="W11" t="n">
-        <v>240.5111478865779</v>
+        <v>255.0068852416217</v>
       </c>
       <c r="X11" t="n">
         <v>274.3071434743683</v>
       </c>
       <c r="Y11" t="n">
-        <v>285.703741270567</v>
+        <v>285.7037412705671</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>127.1899580974948</v>
       </c>
       <c r="H12" t="n">
-        <v>96.51186638509967</v>
+        <v>96.51186638509968</v>
       </c>
       <c r="I12" t="n">
         <v>59.04773217741014</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.81711939818271</v>
+        <v>77.81711939818274</v>
       </c>
       <c r="C13" t="n">
-        <v>64.01711424358319</v>
+        <v>64.01711424358322</v>
       </c>
       <c r="D13" t="n">
-        <v>47.63847864116158</v>
+        <v>47.63847864116161</v>
       </c>
       <c r="E13" t="n">
-        <v>46.58622849694103</v>
+        <v>46.58622849694106</v>
       </c>
       <c r="F13" t="n">
-        <v>47.05315282512734</v>
+        <v>47.05315282512737</v>
       </c>
       <c r="G13" t="n">
-        <v>63.11721021900698</v>
+        <v>63.11721021900701</v>
       </c>
       <c r="H13" t="n">
-        <v>52.00339471222097</v>
+        <v>52.00339471222082</v>
       </c>
       <c r="I13" t="n">
-        <v>32.52363886976944</v>
+        <v>32.52363886976946</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.65248806643301</v>
+        <v>34.65248806643305</v>
       </c>
       <c r="S13" t="n">
-        <v>103.998995800482</v>
+        <v>103.9989958004814</v>
       </c>
       <c r="T13" t="n">
         <v>126.0444380175787</v>
       </c>
       <c r="U13" t="n">
-        <v>180.4041517713033</v>
+        <v>180.404151771303</v>
       </c>
       <c r="V13" t="n">
         <v>154.2252557978083</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>286.2004085234857</v>
       </c>
       <c r="C14" t="n">
-        <v>90.12836443197823</v>
+        <v>274.2117254811674</v>
       </c>
       <c r="D14" t="n">
         <v>265.1930295256954</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>116.1569976096678</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>148.3962195139052</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>229.7067857636648</v>
       </c>
       <c r="W14" t="n">
-        <v>255.0068852416217</v>
+        <v>49.27633279251958</v>
       </c>
       <c r="X14" t="n">
         <v>274.3071434743683</v>
       </c>
       <c r="Y14" t="n">
-        <v>285.703741270567</v>
+        <v>285.7037412705671</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>127.1899580974948</v>
       </c>
       <c r="H15" t="n">
-        <v>96.51186638509967</v>
+        <v>96.51186638509968</v>
       </c>
       <c r="I15" t="n">
-        <v>59.04773217741013</v>
+        <v>59.04773217741014</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>43.58645961274205</v>
+        <v>43.58645961274206</v>
       </c>
       <c r="S15" t="n">
         <v>146.6045057819242</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.81711939818271</v>
+        <v>77.81711939818277</v>
       </c>
       <c r="C16" t="n">
-        <v>64.01711424358319</v>
+        <v>64.01711424358325</v>
       </c>
       <c r="D16" t="n">
-        <v>47.63847864116158</v>
+        <v>47.63847864116164</v>
       </c>
       <c r="E16" t="n">
-        <v>46.58622849694103</v>
+        <v>46.58622849694109</v>
       </c>
       <c r="F16" t="n">
-        <v>47.05315282512734</v>
+        <v>47.0531528251274</v>
       </c>
       <c r="G16" t="n">
-        <v>63.11721021900698</v>
+        <v>63.11721021900703</v>
       </c>
       <c r="H16" t="n">
-        <v>52.00339471222105</v>
+        <v>52.00339471222111</v>
       </c>
       <c r="I16" t="n">
-        <v>32.52363886976944</v>
+        <v>32.52363886976949</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65248806643301</v>
+        <v>34.65248806643307</v>
       </c>
       <c r="S16" t="n">
-        <v>103.998995800482</v>
+        <v>103.9989958004821</v>
       </c>
       <c r="T16" t="n">
-        <v>126.0444380175787</v>
+        <v>126.0444380175788</v>
       </c>
       <c r="U16" t="n">
         <v>180.4041517713032</v>
       </c>
       <c r="V16" t="n">
-        <v>154.2252557978083</v>
+        <v>154.2252557978084</v>
       </c>
       <c r="W16" t="n">
         <v>179.3921418684216</v>
@@ -1846,22 +1846,22 @@
         <v>236.7132774340137</v>
       </c>
       <c r="C17" t="n">
-        <v>224.7245943916955</v>
+        <v>224.7245943916954</v>
       </c>
       <c r="D17" t="n">
         <v>215.7058984362234</v>
       </c>
       <c r="E17" t="n">
-        <v>237.448036006129</v>
+        <v>237.4480360061289</v>
       </c>
       <c r="F17" t="n">
         <v>256.6198520941061</v>
       </c>
       <c r="G17" t="n">
-        <v>258.0835223679358</v>
+        <v>258.0835223679357</v>
       </c>
       <c r="H17" t="n">
-        <v>171.293968307218</v>
+        <v>171.2939683072179</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>21.26590307950151</v>
       </c>
       <c r="T17" t="n">
-        <v>18.93770171396627</v>
+        <v>66.66986652019581</v>
       </c>
       <c r="U17" t="n">
-        <v>98.90908842443324</v>
+        <v>98.90908842443318</v>
       </c>
       <c r="V17" t="n">
-        <v>180.2196546741928</v>
+        <v>111.2215867884618</v>
       </c>
       <c r="W17" t="n">
         <v>205.5197541521497</v>
       </c>
       <c r="X17" t="n">
-        <v>224.8200123848964</v>
+        <v>224.8200123848963</v>
       </c>
       <c r="Y17" t="n">
         <v>236.2166101810951</v>
@@ -1943,7 +1943,7 @@
         <v>96.51186638509967</v>
       </c>
       <c r="I18" t="n">
-        <v>59.04773217741013</v>
+        <v>59.04773217741014</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>43.58645961274205</v>
+        <v>43.58645961274206</v>
       </c>
       <c r="S18" t="n">
         <v>146.6045057819242</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.24445829730339</v>
+        <v>28.32998830871074</v>
       </c>
       <c r="C19" t="n">
-        <v>14.52998315411128</v>
+        <v>14.52998315411122</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>13.63007912953506</v>
+        <v>13.63007912953501</v>
       </c>
       <c r="H19" t="n">
-        <v>2.516263622749138</v>
+        <v>2.516263622749082</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>54.51186471101009</v>
+        <v>54.51186471101003</v>
       </c>
       <c r="T19" t="n">
-        <v>76.55730692810678</v>
+        <v>76.55730692810673</v>
       </c>
       <c r="U19" t="n">
-        <v>130.9170206818312</v>
+        <v>132.8314906704243</v>
       </c>
       <c r="V19" t="n">
-        <v>104.7381247083364</v>
+        <v>104.7381247083363</v>
       </c>
       <c r="W19" t="n">
         <v>129.9050107789496</v>
       </c>
       <c r="X19" t="n">
-        <v>75.55011277475276</v>
+        <v>75.55011277475271</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.42498053082045</v>
+        <v>66.42498053082039</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>236.7132774340137</v>
       </c>
       <c r="C20" t="n">
-        <v>224.7245943916955</v>
+        <v>224.7245943916954</v>
       </c>
       <c r="D20" t="n">
         <v>215.7058984362234</v>
       </c>
       <c r="E20" t="n">
-        <v>237.448036006129</v>
+        <v>237.4480360061289</v>
       </c>
       <c r="F20" t="n">
         <v>256.6198520941061</v>
       </c>
       <c r="G20" t="n">
-        <v>258.0835223679358</v>
+        <v>258.0835223679357</v>
       </c>
       <c r="H20" t="n">
-        <v>171.293968307218</v>
+        <v>123.5618035009894</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>18.93770171396627</v>
+        <v>66.66986652019582</v>
       </c>
       <c r="U20" t="n">
-        <v>98.90908842443324</v>
+        <v>98.90908842443318</v>
       </c>
       <c r="V20" t="n">
         <v>180.2196546741928</v>
@@ -2146,7 +2146,7 @@
         <v>205.5197541521497</v>
       </c>
       <c r="X20" t="n">
-        <v>224.8200123848964</v>
+        <v>224.8200123848963</v>
       </c>
       <c r="Y20" t="n">
         <v>236.2166101810951</v>
@@ -2177,7 +2177,7 @@
         <v>127.1899580974948</v>
       </c>
       <c r="H21" t="n">
-        <v>96.51186638509967</v>
+        <v>96.51186638509968</v>
       </c>
       <c r="I21" t="n">
         <v>59.04773217741014</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.3299883087108</v>
+        <v>28.32998830871074</v>
       </c>
       <c r="C22" t="n">
-        <v>14.52998315411128</v>
+        <v>14.52998315411122</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>13.63007912953506</v>
+        <v>13.63007912953501</v>
       </c>
       <c r="H22" t="n">
-        <v>2.516263622749139</v>
+        <v>2.516263622749082</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>56.42633469960256</v>
+        <v>54.51186471101003</v>
       </c>
       <c r="T22" t="n">
-        <v>76.55730692810678</v>
+        <v>76.55730692810673</v>
       </c>
       <c r="U22" t="n">
-        <v>130.9170206818312</v>
+        <v>132.8314906704243</v>
       </c>
       <c r="V22" t="n">
-        <v>104.7381247083364</v>
+        <v>104.7381247083363</v>
       </c>
       <c r="W22" t="n">
         <v>129.9050107789496</v>
       </c>
       <c r="X22" t="n">
-        <v>75.55011277475276</v>
+        <v>75.55011277475271</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.42498053082045</v>
+        <v>66.42498053082039</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>236.7132774340137</v>
       </c>
       <c r="C23" t="n">
-        <v>224.7245943916955</v>
+        <v>224.7245943916954</v>
       </c>
       <c r="D23" t="n">
         <v>215.7058984362234</v>
       </c>
       <c r="E23" t="n">
-        <v>237.448036006129</v>
+        <v>237.4480360061289</v>
       </c>
       <c r="F23" t="n">
         <v>256.6198520941061</v>
       </c>
       <c r="G23" t="n">
-        <v>258.0835223679358</v>
+        <v>189.0854544822054</v>
       </c>
       <c r="H23" t="n">
-        <v>171.293968307218</v>
+        <v>171.2939683072179</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>21.26590307950157</v>
+        <v>21.26590307950152</v>
       </c>
       <c r="T23" t="n">
-        <v>66.66986652019587</v>
+        <v>66.66986652019582</v>
       </c>
       <c r="U23" t="n">
-        <v>98.90908842443324</v>
+        <v>98.90908842443318</v>
       </c>
       <c r="V23" t="n">
-        <v>111.2215867884614</v>
+        <v>180.2196546741928</v>
       </c>
       <c r="W23" t="n">
         <v>205.5197541521497</v>
       </c>
       <c r="X23" t="n">
-        <v>224.8200123848964</v>
+        <v>224.8200123848963</v>
       </c>
       <c r="Y23" t="n">
         <v>236.2166101810951</v>
@@ -2414,10 +2414,10 @@
         <v>127.1899580974948</v>
       </c>
       <c r="H24" t="n">
-        <v>96.51186638509967</v>
+        <v>96.51186638509968</v>
       </c>
       <c r="I24" t="n">
-        <v>59.04773217741013</v>
+        <v>59.04773217741014</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>43.58645961274205</v>
+        <v>43.58645961274206</v>
       </c>
       <c r="S24" t="n">
         <v>146.6045057819242</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.3299883087108</v>
+        <v>28.32998830871074</v>
       </c>
       <c r="C25" t="n">
-        <v>16.44445314270387</v>
+        <v>14.52998315411122</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>13.63007912953506</v>
+        <v>15.54454911812811</v>
       </c>
       <c r="H25" t="n">
-        <v>2.516263622749138</v>
+        <v>2.516263622749082</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>54.51186471101009</v>
+        <v>54.51186471101003</v>
       </c>
       <c r="T25" t="n">
-        <v>76.55730692810678</v>
+        <v>76.55730692810673</v>
       </c>
       <c r="U25" t="n">
         <v>130.9170206818312</v>
       </c>
       <c r="V25" t="n">
-        <v>104.7381247083364</v>
+        <v>104.7381247083363</v>
       </c>
       <c r="W25" t="n">
         <v>129.9050107789496</v>
       </c>
       <c r="X25" t="n">
-        <v>75.55011277475276</v>
+        <v>75.55011277475271</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.42498053082045</v>
+        <v>66.42498053082039</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>286.2004085234856</v>
       </c>
       <c r="C26" t="n">
-        <v>274.2117254811674</v>
+        <v>111.2779270170891</v>
       </c>
       <c r="D26" t="n">
         <v>265.1930295256954</v>
@@ -2572,7 +2572,7 @@
         <v>307.5706534574077</v>
       </c>
       <c r="H26" t="n">
-        <v>23.97623331456261</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.75303416897349</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>116.1569976096678</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>127.1899580974948</v>
       </c>
       <c r="H27" t="n">
-        <v>96.51186638509967</v>
+        <v>96.51186638509968</v>
       </c>
       <c r="I27" t="n">
-        <v>59.04773217741013</v>
+        <v>59.04773217741014</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>43.58645961274205</v>
+        <v>43.58645961274206</v>
       </c>
       <c r="S27" t="n">
         <v>146.6045057819242</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.8171193981827</v>
+        <v>77.81711939818271</v>
       </c>
       <c r="C28" t="n">
-        <v>64.01711424358318</v>
+        <v>64.01711424358319</v>
       </c>
       <c r="D28" t="n">
-        <v>47.63847864116157</v>
+        <v>47.63847864116158</v>
       </c>
       <c r="E28" t="n">
-        <v>46.58622849694102</v>
+        <v>46.58622849694103</v>
       </c>
       <c r="F28" t="n">
-        <v>47.05315282512733</v>
+        <v>47.05315282512734</v>
       </c>
       <c r="G28" t="n">
-        <v>63.11721021900696</v>
+        <v>63.11721021900698</v>
       </c>
       <c r="H28" t="n">
-        <v>52.00339471222104</v>
+        <v>52.00339471222105</v>
       </c>
       <c r="I28" t="n">
-        <v>32.52363886976973</v>
+        <v>32.52363886976943</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65248806643298</v>
+        <v>34.65248806643302</v>
       </c>
       <c r="S28" t="n">
-        <v>103.9989958004821</v>
+        <v>103.998995800482</v>
       </c>
       <c r="T28" t="n">
         <v>126.0444380175787</v>
       </c>
       <c r="U28" t="n">
-        <v>180.404151771303</v>
+        <v>180.4041517713032</v>
       </c>
       <c r="V28" t="n">
         <v>154.2252557978083</v>
@@ -2794,10 +2794,10 @@
         <v>286.2004085234856</v>
       </c>
       <c r="C29" t="n">
-        <v>274.2117254811674</v>
+        <v>74.36846642148322</v>
       </c>
       <c r="D29" t="n">
-        <v>265.1930295256954</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>286.9351670956009</v>
@@ -2812,7 +2812,7 @@
         <v>220.7810993966899</v>
       </c>
       <c r="I29" t="n">
-        <v>49.08216882037411</v>
+        <v>49.08216882037407</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.75303416897351</v>
+        <v>70.75303416897347</v>
       </c>
       <c r="T29" t="n">
-        <v>116.1569976096678</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>148.3962195139051</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>255.0068852416217</v>
       </c>
       <c r="X29" t="n">
         <v>274.3071434743683</v>
       </c>
       <c r="Y29" t="n">
-        <v>107.913559831046</v>
+        <v>285.703741270567</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>127.1899580974948</v>
       </c>
       <c r="H30" t="n">
-        <v>96.51186638509968</v>
+        <v>96.51186638509967</v>
       </c>
       <c r="I30" t="n">
-        <v>59.04773217741014</v>
+        <v>59.04773217741013</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>43.58645961274207</v>
+        <v>43.58645961274205</v>
       </c>
       <c r="S30" t="n">
         <v>146.6045057819242</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>77.81711939818273</v>
+        <v>77.8171193981827</v>
       </c>
       <c r="C31" t="n">
-        <v>64.01711424358321</v>
+        <v>64.01711424358318</v>
       </c>
       <c r="D31" t="n">
-        <v>47.6384786411616</v>
+        <v>47.63847864116157</v>
       </c>
       <c r="E31" t="n">
-        <v>46.58622849694105</v>
+        <v>46.58622849694102</v>
       </c>
       <c r="F31" t="n">
-        <v>47.05315282512736</v>
+        <v>47.05315282512733</v>
       </c>
       <c r="G31" t="n">
-        <v>63.11721021900699</v>
+        <v>63.11721021900696</v>
       </c>
       <c r="H31" t="n">
-        <v>52.00339471222095</v>
+        <v>52.00339471222104</v>
       </c>
       <c r="I31" t="n">
-        <v>32.52363886976944</v>
+        <v>32.52363886976942</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65248806643247</v>
+        <v>34.65248806643292</v>
       </c>
       <c r="S31" t="n">
         <v>103.998995800482</v>
@@ -3006,7 +3006,7 @@
         <v>126.0444380175787</v>
       </c>
       <c r="U31" t="n">
-        <v>180.4041517713028</v>
+        <v>180.4041517713033</v>
       </c>
       <c r="V31" t="n">
         <v>154.2252557978083</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>231.7848440136042</v>
+        <v>231.7848440136043</v>
       </c>
       <c r="C32" t="n">
-        <v>219.796160971286</v>
+        <v>219.7961609712861</v>
       </c>
       <c r="D32" t="n">
         <v>210.777465015814</v>
       </c>
       <c r="E32" t="n">
-        <v>232.5196025857195</v>
+        <v>232.5196025857196</v>
       </c>
       <c r="F32" t="n">
         <v>251.6914186736967</v>
       </c>
       <c r="G32" t="n">
-        <v>253.1550889475263</v>
+        <v>253.1550889475264</v>
       </c>
       <c r="H32" t="n">
-        <v>166.3655348868085</v>
+        <v>166.3655348868086</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>16.33746965909211</v>
+        <v>16.33746965909252</v>
       </c>
       <c r="T32" t="n">
-        <v>61.74143309978641</v>
+        <v>61.74143309978649</v>
       </c>
       <c r="U32" t="n">
-        <v>93.9806550040244</v>
+        <v>93.98065500402305</v>
       </c>
       <c r="V32" t="n">
         <v>175.2912212537834</v>
       </c>
       <c r="W32" t="n">
-        <v>200.5913207317403</v>
+        <v>200.5913207317404</v>
       </c>
       <c r="X32" t="n">
-        <v>219.8915789644869</v>
+        <v>219.891578964487</v>
       </c>
       <c r="Y32" t="n">
-        <v>231.2881767606856</v>
+        <v>231.2881767606857</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.40155488830132</v>
+        <v>23.4015548883014</v>
       </c>
       <c r="C34" t="n">
-        <v>63.31661754913814</v>
+        <v>9.601549733701887</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>8.701645709125586</v>
+        <v>8.701645709125671</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>49.58343129060061</v>
+        <v>49.5834312906007</v>
       </c>
       <c r="T34" t="n">
-        <v>71.62887350769731</v>
+        <v>71.62887350769739</v>
       </c>
       <c r="U34" t="n">
-        <v>125.9885872614218</v>
+        <v>125.9885872614219</v>
       </c>
       <c r="V34" t="n">
-        <v>99.80969128792691</v>
+        <v>153.5247591033624</v>
       </c>
       <c r="W34" t="n">
-        <v>124.9765773585402</v>
+        <v>124.9765773585403</v>
       </c>
       <c r="X34" t="n">
-        <v>70.62167935434329</v>
+        <v>70.62167935434337</v>
       </c>
       <c r="Y34" t="n">
-        <v>61.49654711041097</v>
+        <v>61.49654711041106</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>231.7848440136042</v>
+        <v>231.7848440136043</v>
       </c>
       <c r="C35" t="n">
-        <v>219.796160971286</v>
+        <v>219.7961609712861</v>
       </c>
       <c r="D35" t="n">
         <v>210.777465015814</v>
       </c>
       <c r="E35" t="n">
-        <v>232.5196025857195</v>
+        <v>232.5196025857196</v>
       </c>
       <c r="F35" t="n">
         <v>251.6914186736967</v>
       </c>
       <c r="G35" t="n">
-        <v>253.1550889475263</v>
+        <v>253.1550889475264</v>
       </c>
       <c r="H35" t="n">
-        <v>166.3655348868093</v>
+        <v>166.3655348868086</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.3374696590921</v>
+        <v>16.33746965909208</v>
       </c>
       <c r="T35" t="n">
-        <v>61.7414330997864</v>
+        <v>61.74143309978649</v>
       </c>
       <c r="U35" t="n">
-        <v>93.98065500402376</v>
+        <v>93.9806550040235</v>
       </c>
       <c r="V35" t="n">
         <v>175.2912212537834</v>
       </c>
       <c r="W35" t="n">
-        <v>200.5913207317403</v>
+        <v>200.5913207317404</v>
       </c>
       <c r="X35" t="n">
-        <v>219.8915789644869</v>
+        <v>219.891578964487</v>
       </c>
       <c r="Y35" t="n">
-        <v>231.2881767606856</v>
+        <v>231.2881767606857</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>23.40155488830132</v>
+        <v>23.4015548883014</v>
       </c>
       <c r="C37" t="n">
-        <v>9.601549733701802</v>
+        <v>9.601549733701887</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>53.71506781543545</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>8.701645709125586</v>
+        <v>8.701645709125671</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3468,31 +3468,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.51329419366976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>49.58343129060061</v>
+        <v>49.5834312906007</v>
       </c>
       <c r="T37" t="n">
-        <v>71.62887350769731</v>
+        <v>71.62887350769739</v>
       </c>
       <c r="U37" t="n">
-        <v>125.9885872614218</v>
+        <v>125.9885872614219</v>
       </c>
       <c r="V37" t="n">
-        <v>133.0114649096934</v>
+        <v>99.809691287927</v>
       </c>
       <c r="W37" t="n">
-        <v>124.9765773585402</v>
+        <v>124.9765773585403</v>
       </c>
       <c r="X37" t="n">
-        <v>70.62167935434329</v>
+        <v>70.62167935434337</v>
       </c>
       <c r="Y37" t="n">
-        <v>61.49654711041097</v>
+        <v>61.49654711041106</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>231.7848440136042</v>
+        <v>231.7848440136044</v>
       </c>
       <c r="C38" t="n">
-        <v>219.796160971286</v>
+        <v>219.7961609712861</v>
       </c>
       <c r="D38" t="n">
-        <v>210.777465015814</v>
+        <v>210.7774650158141</v>
       </c>
       <c r="E38" t="n">
-        <v>232.5196025857195</v>
+        <v>232.5196025857196</v>
       </c>
       <c r="F38" t="n">
-        <v>251.6914186736967</v>
+        <v>251.6914186736968</v>
       </c>
       <c r="G38" t="n">
-        <v>253.1550889475263</v>
+        <v>253.1550889475264</v>
       </c>
       <c r="H38" t="n">
-        <v>166.3655348868085</v>
+        <v>166.3655348868086</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.33746965909297</v>
+        <v>16.33746965909252</v>
       </c>
       <c r="T38" t="n">
-        <v>61.7414330997864</v>
+        <v>61.74143309978651</v>
       </c>
       <c r="U38" t="n">
-        <v>93.98065500402376</v>
+        <v>93.98065500402305</v>
       </c>
       <c r="V38" t="n">
-        <v>175.2912212537834</v>
+        <v>175.2912212537835</v>
       </c>
       <c r="W38" t="n">
-        <v>200.5913207317403</v>
+        <v>200.5913207317404</v>
       </c>
       <c r="X38" t="n">
-        <v>219.8915789644869</v>
+        <v>219.891578964487</v>
       </c>
       <c r="Y38" t="n">
-        <v>231.2881767606856</v>
+        <v>231.2881767606858</v>
       </c>
     </row>
     <row r="39">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>23.40155488830132</v>
+        <v>23.40155488830143</v>
       </c>
       <c r="C40" t="n">
-        <v>9.601549733701802</v>
+        <v>9.601549733701916</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>8.701645709125586</v>
+        <v>8.7016457091257</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>44.56404154796726</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>49.58343129060061</v>
+        <v>49.58343129060073</v>
       </c>
       <c r="T40" t="n">
-        <v>71.62887350769731</v>
+        <v>71.62887350769742</v>
       </c>
       <c r="U40" t="n">
-        <v>125.9885872614218</v>
+        <v>125.9885872614219</v>
       </c>
       <c r="V40" t="n">
-        <v>99.80969128792691</v>
+        <v>99.80969128792702</v>
       </c>
       <c r="W40" t="n">
-        <v>178.6916451739765</v>
+        <v>124.9765773585403</v>
       </c>
       <c r="X40" t="n">
-        <v>70.62167935434329</v>
+        <v>70.6216793543434</v>
       </c>
       <c r="Y40" t="n">
-        <v>61.49654711041097</v>
+        <v>70.647573377879</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>286.2004085234856</v>
       </c>
       <c r="C41" t="n">
-        <v>274.2117254811674</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>265.1930295256954</v>
+        <v>177.3607224946934</v>
       </c>
       <c r="E41" t="n">
         <v>286.9351670956009</v>
@@ -3760,7 +3760,7 @@
         <v>220.7810993966899</v>
       </c>
       <c r="I41" t="n">
-        <v>49.08216882037413</v>
+        <v>49.0821688203741</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>116.1569976096678</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>9.119850339119957</v>
+        <v>255.0068852416217</v>
       </c>
       <c r="X41" t="n">
         <v>274.3071434743683</v>
       </c>
       <c r="Y41" t="n">
-        <v>285.7037412705671</v>
+        <v>285.703741270567</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>77.81711939818274</v>
+        <v>77.81711939818271</v>
       </c>
       <c r="C43" t="n">
-        <v>64.01711424358322</v>
+        <v>64.01711424358319</v>
       </c>
       <c r="D43" t="n">
-        <v>47.63847864116161</v>
+        <v>47.63847864116158</v>
       </c>
       <c r="E43" t="n">
-        <v>46.58622849694106</v>
+        <v>46.58622849694103</v>
       </c>
       <c r="F43" t="n">
-        <v>47.05315282512737</v>
+        <v>47.05315282512734</v>
       </c>
       <c r="G43" t="n">
-        <v>63.11721021900701</v>
+        <v>63.11721021900698</v>
       </c>
       <c r="H43" t="n">
-        <v>52.00339471222109</v>
+        <v>52.00339471222105</v>
       </c>
       <c r="I43" t="n">
-        <v>32.52363886976946</v>
+        <v>32.52363886976943</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>34.65248806643305</v>
+        <v>34.65248806643302</v>
       </c>
       <c r="S43" t="n">
         <v>103.998995800482</v>
@@ -3954,7 +3954,7 @@
         <v>126.0444380175787</v>
       </c>
       <c r="U43" t="n">
-        <v>180.4041517713022</v>
+        <v>180.4041517713032</v>
       </c>
       <c r="V43" t="n">
         <v>154.2252557978083</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>274.2117254811674</v>
       </c>
       <c r="D44" t="n">
-        <v>85.45812574060913</v>
+        <v>75.79961738301488</v>
       </c>
       <c r="E44" t="n">
         <v>286.9351670956009</v>
@@ -3997,7 +3997,7 @@
         <v>220.7810993966899</v>
       </c>
       <c r="I44" t="n">
-        <v>49.0821688203741</v>
+        <v>49.08216882037411</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>116.1569976096678</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>148.3962195139052</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>229.7067857636648</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>77.81711939818271</v>
+        <v>77.81711939818273</v>
       </c>
       <c r="C46" t="n">
-        <v>64.01711424358319</v>
+        <v>64.01711424358321</v>
       </c>
       <c r="D46" t="n">
-        <v>47.63847864116158</v>
+        <v>47.6384786411616</v>
       </c>
       <c r="E46" t="n">
-        <v>46.58622849694103</v>
+        <v>46.58622849694105</v>
       </c>
       <c r="F46" t="n">
-        <v>47.05315282512734</v>
+        <v>47.05315282512736</v>
       </c>
       <c r="G46" t="n">
-        <v>63.11721021900698</v>
+        <v>63.11721021900699</v>
       </c>
       <c r="H46" t="n">
-        <v>52.00339471222106</v>
+        <v>52.00339471222107</v>
       </c>
       <c r="I46" t="n">
         <v>32.52363886976944</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>34.65248806643247</v>
+        <v>34.65248806643304</v>
       </c>
       <c r="S46" t="n">
         <v>103.998995800482</v>
@@ -4191,7 +4191,7 @@
         <v>126.0444380175787</v>
       </c>
       <c r="U46" t="n">
-        <v>180.4041517713032</v>
+        <v>180.4041517713026</v>
       </c>
       <c r="V46" t="n">
         <v>154.2252557978083</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="C2" t="n">
-        <v>542.9175971897271</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="D2" t="n">
-        <v>542.9175971897271</v>
+        <v>33.03272109862812</v>
       </c>
       <c r="E2" t="n">
-        <v>405.8171938589879</v>
+        <v>33.03272109862812</v>
       </c>
       <c r="F2" t="n">
-        <v>268.7167905282488</v>
+        <v>22.92193444920251</v>
       </c>
       <c r="G2" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H2" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I2" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J2" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K2" t="n">
-        <v>217.2290015210577</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L2" t="n">
-        <v>217.2290015210577</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="M2" t="n">
-        <v>351.6011068255151</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="N2" t="n">
-        <v>351.6011068255151</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="O2" t="n">
-        <v>408.5454918852696</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P2" t="n">
         <v>542.9175971897271</v>
@@ -4360,22 +4360,22 @@
         <v>542.9175971897271</v>
       </c>
       <c r="T2" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="U2" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V2" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W2" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="X2" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="Y2" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282488</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307.9069946837509</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="C3" t="n">
-        <v>307.9069946837509</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="D3" t="n">
-        <v>307.9069946837509</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="E3" t="n">
-        <v>307.9069946837509</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="F3" t="n">
-        <v>307.9069946837509</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="G3" t="n">
         <v>179.1784947070355</v>
@@ -4409,16 +4409,16 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J3" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K3" t="n">
-        <v>205.4846037813581</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="L3" t="n">
-        <v>274.1733865808121</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="M3" t="n">
-        <v>274.1733865808121</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="N3" t="n">
         <v>274.1733865808121</v>
@@ -4427,7 +4427,7 @@
         <v>408.5454918852696</v>
       </c>
       <c r="P3" t="n">
-        <v>408.5454918852696</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q3" t="n">
         <v>542.9175971897271</v>
@@ -4439,22 +4439,22 @@
         <v>346.0329249539337</v>
       </c>
       <c r="T3" t="n">
-        <v>346.0329249539337</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="U3" t="n">
-        <v>346.0329249539337</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="V3" t="n">
-        <v>346.0329249539337</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="W3" t="n">
-        <v>346.0329249539337</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="X3" t="n">
-        <v>307.9069946837509</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="Y3" t="n">
-        <v>307.9069946837509</v>
+        <v>179.1784947070355</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.91559052962182</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="C4" t="n">
-        <v>70.91559052962182</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="D4" t="n">
-        <v>70.91559052962182</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="E4" t="n">
-        <v>70.91559052962182</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="F4" t="n">
-        <v>70.91559052962182</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="G4" t="n">
-        <v>70.91559052962182</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="H4" t="n">
-        <v>70.91559052962182</v>
+        <v>208.015993860361</v>
       </c>
       <c r="I4" t="n">
         <v>70.91559052962182</v>
@@ -4491,7 +4491,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K4" t="n">
-        <v>44.46253968843797</v>
+        <v>44.46253968843799</v>
       </c>
       <c r="L4" t="n">
         <v>145.0696190886975</v>
@@ -4521,19 +4521,19 @@
         <v>542.9175971897271</v>
       </c>
       <c r="U4" t="n">
-        <v>482.2168005218393</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V4" t="n">
-        <v>345.1163971911002</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="W4" t="n">
-        <v>208.015993860361</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="X4" t="n">
-        <v>70.91559052962182</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="Y4" t="n">
-        <v>70.91559052962182</v>
+        <v>268.7167905282488</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.1789073548413</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="C5" t="n">
-        <v>315.1789073548413</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="D5" t="n">
-        <v>315.1789073548413</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="E5" t="n">
-        <v>315.1789073548413</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="F5" t="n">
-        <v>178.0785040241021</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G5" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H5" t="n">
         <v>10.85835194379454</v>
@@ -4573,16 +4573,16 @@
         <v>217.2290015210577</v>
       </c>
       <c r="L5" t="n">
-        <v>351.6011068255151</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="M5" t="n">
-        <v>351.6011068255151</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="N5" t="n">
-        <v>351.6011068255151</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="O5" t="n">
-        <v>351.6011068255151</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="P5" t="n">
         <v>448.4853435031901</v>
@@ -4609,10 +4609,10 @@
         <v>315.1789073548413</v>
       </c>
       <c r="X5" t="n">
-        <v>315.1789073548413</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.1789073548413</v>
+        <v>178.0785040241021</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="C6" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="D6" t="n">
-        <v>483.1333282846729</v>
+        <v>450.9726960879003</v>
       </c>
       <c r="E6" t="n">
-        <v>346.0329249539337</v>
+        <v>313.8722927571612</v>
       </c>
       <c r="F6" t="n">
-        <v>211.3391269038081</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="G6" t="n">
         <v>179.1784947070355</v>
@@ -4649,19 +4649,19 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K6" t="n">
-        <v>71.11249847690068</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L6" t="n">
-        <v>71.11249847690068</v>
+        <v>339.8567090858156</v>
       </c>
       <c r="M6" t="n">
-        <v>205.4846037813581</v>
+        <v>474.2288143902731</v>
       </c>
       <c r="N6" t="n">
-        <v>274.1733865808121</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="O6" t="n">
-        <v>408.5454918852696</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P6" t="n">
         <v>542.9175971897271</v>
@@ -4670,28 +4670,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R6" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S6" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T6" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U6" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V6" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W6" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="X6" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Y6" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C7" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D7" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E7" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F7" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G7" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H7" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I7" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J7" t="n">
         <v>10.85835194379454</v>
@@ -4746,31 +4746,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q7" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R7" t="n">
-        <v>504.380255843416</v>
+        <v>422.159561936012</v>
       </c>
       <c r="S7" t="n">
-        <v>504.380255843416</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="T7" t="n">
-        <v>367.2798525126768</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="U7" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="V7" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W7" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X7" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y7" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="C8" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="D8" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="E8" t="n">
-        <v>405.8171938589879</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="F8" t="n">
-        <v>285.0591586052728</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G8" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H8" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I8" t="n">
         <v>10.85835194379454</v>
@@ -4807,22 +4807,22 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K8" t="n">
-        <v>139.8012812763547</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="L8" t="n">
-        <v>139.8012812763547</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="M8" t="n">
-        <v>274.1733865808121</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="N8" t="n">
-        <v>274.1733865808121</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="O8" t="n">
-        <v>408.5454918852696</v>
+        <v>485.9732121299726</v>
       </c>
       <c r="P8" t="n">
-        <v>542.9175971897271</v>
+        <v>485.9732121299726</v>
       </c>
       <c r="Q8" t="n">
         <v>542.9175971897271</v>
@@ -4834,22 +4834,22 @@
         <v>542.9175971897271</v>
       </c>
       <c r="T8" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U8" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="V8" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="W8" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="X8" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="Y8" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="C9" t="n">
         <v>10.85835194379454</v>
@@ -4889,16 +4889,16 @@
         <v>205.4846037813581</v>
       </c>
       <c r="L9" t="n">
-        <v>339.8567090858156</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="M9" t="n">
-        <v>474.2288143902731</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N9" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O9" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P9" t="n">
         <v>542.9175971897271</v>
@@ -4907,28 +4907,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R9" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S9" t="n">
-        <v>346.0329249539337</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T9" t="n">
-        <v>208.9325216231946</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U9" t="n">
-        <v>147.9587552745337</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V9" t="n">
-        <v>147.9587552745337</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W9" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="X9" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975096</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>367.2798525126768</v>
+        <v>345.1163971911002</v>
       </c>
       <c r="C10" t="n">
-        <v>230.1794491819377</v>
+        <v>208.015993860361</v>
       </c>
       <c r="D10" t="n">
-        <v>230.1794491819377</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="E10" t="n">
-        <v>93.07904585119849</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="F10" t="n">
-        <v>93.07904585119849</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="G10" t="n">
-        <v>93.07904585119849</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="H10" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="I10" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="J10" t="n">
         <v>10.85835194379454</v>
@@ -4986,28 +4986,28 @@
         <v>504.380255843416</v>
       </c>
       <c r="R10" t="n">
-        <v>367.2798525126768</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="S10" t="n">
-        <v>367.2798525126768</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="T10" t="n">
-        <v>367.2798525126768</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="U10" t="n">
-        <v>367.2798525126768</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="V10" t="n">
-        <v>367.2798525126768</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="W10" t="n">
-        <v>367.2798525126768</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="X10" t="n">
-        <v>367.2798525126768</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="Y10" t="n">
-        <v>367.2798525126768</v>
+        <v>482.2168005218393</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1453.47292663075</v>
+        <v>1250.032755788643</v>
       </c>
       <c r="C11" t="n">
-        <v>1453.47292663075</v>
+        <v>1230.461715118942</v>
       </c>
       <c r="D11" t="n">
-        <v>1185.601179635098</v>
+        <v>962.5899681232902</v>
       </c>
       <c r="E11" t="n">
-        <v>895.7676775183295</v>
+        <v>672.7564660065216</v>
       </c>
       <c r="F11" t="n">
-        <v>586.5687046056244</v>
+        <v>363.5574930938164</v>
       </c>
       <c r="G11" t="n">
-        <v>275.8912768708691</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="H11" t="n">
-        <v>52.88006535906113</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="I11" t="n">
-        <v>52.88006535906113</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="J11" t="n">
         <v>164.336555824229</v>
       </c>
       <c r="K11" t="n">
-        <v>463.6141607939937</v>
+        <v>463.6141607939935</v>
       </c>
       <c r="L11" t="n">
-        <v>884.8645005942221</v>
+        <v>884.8645005942219</v>
       </c>
       <c r="M11" t="n">
         <v>1359.736328233776</v>
       </c>
       <c r="N11" t="n">
-        <v>1821.021250113512</v>
+        <v>1821.021250113511</v>
       </c>
       <c r="O11" t="n">
         <v>2204.356532022459</v>
@@ -5068,25 +5068,25 @@
         <v>2644.003267953056</v>
       </c>
       <c r="S11" t="n">
-        <v>2644.003267953056</v>
+        <v>2572.535556671265</v>
       </c>
       <c r="T11" t="n">
-        <v>2644.003267953056</v>
+        <v>2455.205256055438</v>
       </c>
       <c r="U11" t="n">
-        <v>2494.108096726889</v>
+        <v>2305.310084829272</v>
       </c>
       <c r="V11" t="n">
-        <v>2262.081040399955</v>
+        <v>2073.283028502337</v>
       </c>
       <c r="W11" t="n">
-        <v>2019.14048697917</v>
+        <v>1815.700316137063</v>
       </c>
       <c r="X11" t="n">
-        <v>1742.062564277787</v>
+        <v>1538.622393435681</v>
       </c>
       <c r="Y11" t="n">
-        <v>1453.47292663075</v>
+        <v>1250.032755788643</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>112.524239275637</v>
       </c>
       <c r="I12" t="n">
-        <v>52.88006535906113</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="J12" t="n">
-        <v>52.88006535906113</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="K12" t="n">
-        <v>52.88006535906113</v>
+        <v>322.5373691715781</v>
       </c>
       <c r="L12" t="n">
-        <v>472.7110644729123</v>
+        <v>742.3683682854294</v>
       </c>
       <c r="M12" t="n">
-        <v>1020.770553188261</v>
+        <v>1290.427857000779</v>
       </c>
       <c r="N12" t="n">
-        <v>1596.730448775268</v>
+        <v>1548.070013074807</v>
       </c>
       <c r="O12" t="n">
-        <v>2048.112998771333</v>
+        <v>1999.452563070873</v>
       </c>
       <c r="P12" t="n">
-        <v>2397.708171544704</v>
+        <v>2349.047735844244</v>
       </c>
       <c r="Q12" t="n">
         <v>2538.57135868869</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>409.3843259730112</v>
+        <v>409.3843259730111</v>
       </c>
       <c r="C13" t="n">
         <v>344.720574211816</v>
       </c>
       <c r="D13" t="n">
-        <v>296.6008988167033</v>
+        <v>296.6008988167032</v>
       </c>
       <c r="E13" t="n">
-        <v>249.5441023551467</v>
+        <v>249.5441023551466</v>
       </c>
       <c r="F13" t="n">
-        <v>202.0156651580484</v>
+        <v>202.0156651580483</v>
       </c>
       <c r="G13" t="n">
-        <v>138.2609073610716</v>
+        <v>138.2609073610715</v>
       </c>
       <c r="H13" t="n">
-        <v>85.73222583357571</v>
+        <v>85.73222583357573</v>
       </c>
       <c r="I13" t="n">
-        <v>52.88006535906113</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6253328699334</v>
+        <v>111.6253328699332</v>
       </c>
       <c r="K13" t="n">
-        <v>272.3216148233289</v>
+        <v>272.3216148233287</v>
       </c>
       <c r="L13" t="n">
-        <v>506.7964060356827</v>
+        <v>506.7964060356824</v>
       </c>
       <c r="M13" t="n">
-        <v>760.3429972404517</v>
+        <v>760.3429972404513</v>
       </c>
       <c r="N13" t="n">
-        <v>1013.541142808862</v>
+        <v>1013.541142808861</v>
       </c>
       <c r="O13" t="n">
         <v>1244.344479911191</v>
@@ -5223,7 +5223,7 @@
         <v>1517.953968604048</v>
       </c>
       <c r="R13" t="n">
-        <v>1482.951455405631</v>
+        <v>1482.95145540563</v>
       </c>
       <c r="S13" t="n">
         <v>1377.901964698073</v>
@@ -5235,16 +5235,16 @@
         <v>1068.357934608294</v>
       </c>
       <c r="V13" t="n">
-        <v>912.5748479438408</v>
+        <v>912.574847943841</v>
       </c>
       <c r="W13" t="n">
-        <v>731.3706642383645</v>
+        <v>731.3706642383646</v>
       </c>
       <c r="X13" t="n">
-        <v>605.0704179108648</v>
+        <v>605.0704179108649</v>
       </c>
       <c r="Y13" t="n">
-        <v>487.9874768802665</v>
+        <v>487.9874768802664</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1321.500467070435</v>
+        <v>1507.44325600901</v>
       </c>
       <c r="C14" t="n">
         <v>1230.461715118942</v>
@@ -5281,7 +5281,7 @@
         <v>164.336555824229</v>
       </c>
       <c r="K14" t="n">
-        <v>463.6141607939936</v>
+        <v>463.6141607939937</v>
       </c>
       <c r="L14" t="n">
         <v>884.8645005942221</v>
@@ -5290,7 +5290,7 @@
         <v>1359.736328233776</v>
       </c>
       <c r="N14" t="n">
-        <v>1821.021250113512</v>
+        <v>1821.021250113511</v>
       </c>
       <c r="O14" t="n">
         <v>2204.356532022459</v>
@@ -5308,22 +5308,22 @@
         <v>2644.003267953056</v>
       </c>
       <c r="T14" t="n">
-        <v>2526.67296733723</v>
+        <v>2644.003267953056</v>
       </c>
       <c r="U14" t="n">
-        <v>2376.777796111063</v>
+        <v>2644.003267953056</v>
       </c>
       <c r="V14" t="n">
-        <v>2144.750739784129</v>
+        <v>2411.976211626122</v>
       </c>
       <c r="W14" t="n">
-        <v>1887.168027418855</v>
+        <v>2362.202138098325</v>
       </c>
       <c r="X14" t="n">
-        <v>1610.090104717473</v>
+        <v>2085.124215396942</v>
       </c>
       <c r="Y14" t="n">
-        <v>1321.500467070435</v>
+        <v>1796.534577749905</v>
       </c>
     </row>
     <row r="15">
@@ -5363,10 +5363,10 @@
         <v>136.6350943303454</v>
       </c>
       <c r="L15" t="n">
-        <v>424.0506287724521</v>
+        <v>556.4660934441965</v>
       </c>
       <c r="M15" t="n">
-        <v>972.1101174878013</v>
+        <v>1104.525582159546</v>
       </c>
       <c r="N15" t="n">
         <v>1548.070013074807</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>409.3843259730113</v>
+        <v>409.3843259730117</v>
       </c>
       <c r="C16" t="n">
-        <v>344.7205742118161</v>
+        <v>344.7205742118165</v>
       </c>
       <c r="D16" t="n">
-        <v>296.6008988167034</v>
+        <v>296.6008988167037</v>
       </c>
       <c r="E16" t="n">
-        <v>249.5441023551468</v>
+        <v>249.544102355147</v>
       </c>
       <c r="F16" t="n">
-        <v>202.0156651580485</v>
+        <v>202.0156651580486</v>
       </c>
       <c r="G16" t="n">
-        <v>138.2609073610717</v>
+        <v>138.2609073610718</v>
       </c>
       <c r="H16" t="n">
-        <v>85.73222583357571</v>
+        <v>85.73222583357577</v>
       </c>
       <c r="I16" t="n">
         <v>52.88006535906113</v>
@@ -5439,49 +5439,49 @@
         <v>111.6253328699333</v>
       </c>
       <c r="K16" t="n">
-        <v>272.3216148233288</v>
+        <v>272.3216148233287</v>
       </c>
       <c r="L16" t="n">
-        <v>506.7964060356829</v>
+        <v>506.7964060356824</v>
       </c>
       <c r="M16" t="n">
-        <v>760.342997240452</v>
+        <v>760.3429972404514</v>
       </c>
       <c r="N16" t="n">
-        <v>1013.541142808862</v>
+        <v>1013.541142808861</v>
       </c>
       <c r="O16" t="n">
-        <v>1244.344479911192</v>
+        <v>1244.344479911191</v>
       </c>
       <c r="P16" t="n">
-        <v>1435.398461212422</v>
+        <v>1435.398461212421</v>
       </c>
       <c r="Q16" t="n">
-        <v>1517.953968604048</v>
+        <v>1517.953968604049</v>
       </c>
       <c r="R16" t="n">
-        <v>1482.951455405631</v>
+        <v>1482.951455405632</v>
       </c>
       <c r="S16" t="n">
-        <v>1377.901964698073</v>
+        <v>1377.901964698074</v>
       </c>
       <c r="T16" t="n">
-        <v>1250.584350538903</v>
+        <v>1250.584350538904</v>
       </c>
       <c r="U16" t="n">
         <v>1068.357934608294</v>
       </c>
       <c r="V16" t="n">
-        <v>912.5748479438408</v>
+        <v>912.5748479438416</v>
       </c>
       <c r="W16" t="n">
-        <v>731.3706642383645</v>
+        <v>731.3706642383652</v>
       </c>
       <c r="X16" t="n">
-        <v>605.0704179108649</v>
+        <v>605.0704179108654</v>
       </c>
       <c r="Y16" t="n">
-        <v>487.9874768802666</v>
+        <v>487.987476880267</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1203.537921128366</v>
       </c>
       <c r="D17" t="n">
-        <v>985.6531752331913</v>
+        <v>985.6531752331912</v>
       </c>
       <c r="E17" t="n">
-        <v>745.8066742168994</v>
+        <v>745.8066742168993</v>
       </c>
       <c r="F17" t="n">
-        <v>486.594702404671</v>
+        <v>486.5947024046709</v>
       </c>
       <c r="G17" t="n">
         <v>225.9042757703924</v>
       </c>
       <c r="H17" t="n">
-        <v>52.88006535906113</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="I17" t="n">
-        <v>52.88006535906113</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="J17" t="n">
-        <v>164.3365558242292</v>
+        <v>164.3365558242286</v>
       </c>
       <c r="K17" t="n">
-        <v>463.6141607939937</v>
+        <v>463.6141607939933</v>
       </c>
       <c r="L17" t="n">
-        <v>884.8645005942221</v>
+        <v>884.8645005942217</v>
       </c>
       <c r="M17" t="n">
         <v>1359.736328233776</v>
       </c>
       <c r="N17" t="n">
-        <v>1821.021250113512</v>
+        <v>1821.021250113511</v>
       </c>
       <c r="O17" t="n">
         <v>2204.356532022459</v>
@@ -5542,16 +5542,16 @@
         <v>2644.003267953056</v>
       </c>
       <c r="S17" t="n">
-        <v>2644.003267953056</v>
+        <v>2622.522557771741</v>
       </c>
       <c r="T17" t="n">
-        <v>2624.874276322787</v>
+        <v>2555.179258256392</v>
       </c>
       <c r="U17" t="n">
-        <v>2524.966106197097</v>
+        <v>2455.271088130702</v>
       </c>
       <c r="V17" t="n">
-        <v>2342.92605097064</v>
+        <v>2342.926050970639</v>
       </c>
       <c r="W17" t="n">
         <v>2135.330339705842</v>
@@ -5591,13 +5591,13 @@
         <v>112.524239275637</v>
       </c>
       <c r="I18" t="n">
-        <v>52.88006535906113</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="J18" t="n">
-        <v>52.88006535906113</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="K18" t="n">
-        <v>52.88006535906113</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="L18" t="n">
         <v>472.7110644729123</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.86625314329899</v>
+        <v>83.86625314329881</v>
       </c>
       <c r="C19" t="n">
-        <v>69.18950248258052</v>
+        <v>69.18950248258039</v>
       </c>
       <c r="D19" t="n">
-        <v>69.18950248258052</v>
+        <v>69.18950248258039</v>
       </c>
       <c r="E19" t="n">
-        <v>69.18950248258052</v>
+        <v>69.18950248258039</v>
       </c>
       <c r="F19" t="n">
-        <v>69.18950248258052</v>
+        <v>69.18950248258039</v>
       </c>
       <c r="G19" t="n">
-        <v>55.42174578608046</v>
+        <v>55.42174578608039</v>
       </c>
       <c r="H19" t="n">
-        <v>52.88006535906113</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="I19" t="n">
-        <v>52.88006535906113</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="J19" t="n">
-        <v>52.88006535906113</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="K19" t="n">
         <v>110.7126786690969</v>
@@ -5682,43 +5682,43 @@
         <v>242.3238012380909</v>
       </c>
       <c r="M19" t="n">
-        <v>393.0067237995003</v>
+        <v>393.0067237995002</v>
       </c>
       <c r="N19" t="n">
-        <v>543.3412007245506</v>
+        <v>543.3412007245504</v>
       </c>
       <c r="O19" t="n">
-        <v>671.2808691835205</v>
+        <v>671.2808691835203</v>
       </c>
       <c r="P19" t="n">
-        <v>759.4711818413907</v>
+        <v>759.4711818413905</v>
       </c>
       <c r="Q19" t="n">
-        <v>759.4711818413907</v>
+        <v>759.4711818413905</v>
       </c>
       <c r="R19" t="n">
-        <v>759.4711818413907</v>
+        <v>759.4711818413905</v>
       </c>
       <c r="S19" t="n">
-        <v>704.4086922343098</v>
+        <v>704.4086922343097</v>
       </c>
       <c r="T19" t="n">
         <v>627.078079175616</v>
       </c>
       <c r="U19" t="n">
-        <v>494.8386643454835</v>
+        <v>492.9048562761976</v>
       </c>
       <c r="V19" t="n">
-        <v>389.0425787815074</v>
+        <v>387.1087707122215</v>
       </c>
       <c r="W19" t="n">
-        <v>257.8253961765077</v>
+        <v>255.8915881072219</v>
       </c>
       <c r="X19" t="n">
-        <v>181.5121509494847</v>
+        <v>179.5783428801989</v>
       </c>
       <c r="Y19" t="n">
-        <v>114.416211019363</v>
+        <v>112.4824029500773</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1430.532460917958</v>
+        <v>1382.318153032878</v>
       </c>
       <c r="C20" t="n">
-        <v>1203.537921128366</v>
+        <v>1155.323613243287</v>
       </c>
       <c r="D20" t="n">
-        <v>985.6531752331913</v>
+        <v>937.4388673481118</v>
       </c>
       <c r="E20" t="n">
-        <v>745.8066742168994</v>
+        <v>697.5923663318199</v>
       </c>
       <c r="F20" t="n">
-        <v>486.594702404671</v>
+        <v>438.3803945195915</v>
       </c>
       <c r="G20" t="n">
-        <v>225.9042757703924</v>
+        <v>177.689967885313</v>
       </c>
       <c r="H20" t="n">
         <v>52.88006535906113</v>
@@ -5755,7 +5755,7 @@
         <v>164.336555824229</v>
       </c>
       <c r="K20" t="n">
-        <v>463.6141607939936</v>
+        <v>463.6141607939937</v>
       </c>
       <c r="L20" t="n">
         <v>884.8645005942221</v>
@@ -5782,22 +5782,22 @@
         <v>2644.003267953056</v>
       </c>
       <c r="T20" t="n">
-        <v>2624.874276322787</v>
+        <v>2576.659968437707</v>
       </c>
       <c r="U20" t="n">
-        <v>2524.966106197097</v>
+        <v>2476.751798312017</v>
       </c>
       <c r="V20" t="n">
-        <v>2342.92605097064</v>
+        <v>2294.71174308556</v>
       </c>
       <c r="W20" t="n">
-        <v>2135.330339705842</v>
+        <v>2087.116031820762</v>
       </c>
       <c r="X20" t="n">
-        <v>1908.239418104936</v>
+        <v>1860.025110219857</v>
       </c>
       <c r="Y20" t="n">
-        <v>1669.636781558376</v>
+        <v>1621.422473673296</v>
       </c>
     </row>
     <row r="21">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.86625314329899</v>
+        <v>83.86625314329882</v>
       </c>
       <c r="C22" t="n">
-        <v>69.18950248258052</v>
+        <v>69.18950248258041</v>
       </c>
       <c r="D22" t="n">
-        <v>69.18950248258052</v>
+        <v>69.18950248258041</v>
       </c>
       <c r="E22" t="n">
-        <v>69.18950248258052</v>
+        <v>69.18950248258041</v>
       </c>
       <c r="F22" t="n">
-        <v>69.18950248258052</v>
+        <v>69.18950248258041</v>
       </c>
       <c r="G22" t="n">
-        <v>55.42174578608046</v>
+        <v>55.4217457860804</v>
       </c>
       <c r="H22" t="n">
         <v>52.88006535906113</v>
@@ -5922,40 +5922,40 @@
         <v>393.0067237995002</v>
       </c>
       <c r="N22" t="n">
-        <v>543.3412007245505</v>
+        <v>543.3412007245504</v>
       </c>
       <c r="O22" t="n">
-        <v>671.2808691835204</v>
+        <v>671.2808691835203</v>
       </c>
       <c r="P22" t="n">
-        <v>759.4711818413906</v>
+        <v>759.4711818413905</v>
       </c>
       <c r="Q22" t="n">
-        <v>759.4711818413906</v>
+        <v>759.4711818413905</v>
       </c>
       <c r="R22" t="n">
-        <v>759.4711818413906</v>
+        <v>759.4711818413905</v>
       </c>
       <c r="S22" t="n">
-        <v>702.4748841650244</v>
+        <v>704.4086922343097</v>
       </c>
       <c r="T22" t="n">
-        <v>625.1442711063306</v>
+        <v>627.078079175616</v>
       </c>
       <c r="U22" t="n">
-        <v>492.9048562761981</v>
+        <v>492.9048562761976</v>
       </c>
       <c r="V22" t="n">
-        <v>387.1087707122219</v>
+        <v>387.1087707122215</v>
       </c>
       <c r="W22" t="n">
-        <v>255.8915881072222</v>
+        <v>255.8915881072219</v>
       </c>
       <c r="X22" t="n">
-        <v>179.5783428801992</v>
+        <v>179.578342880199</v>
       </c>
       <c r="Y22" t="n">
-        <v>112.4824029500776</v>
+        <v>112.4824029500773</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1430.532460917958</v>
+        <v>1360.837442851563</v>
       </c>
       <c r="C23" t="n">
-        <v>1203.537921128366</v>
+        <v>1133.842903061972</v>
       </c>
       <c r="D23" t="n">
-        <v>985.6531752331913</v>
+        <v>915.9581571667969</v>
       </c>
       <c r="E23" t="n">
-        <v>745.8066742168994</v>
+        <v>676.111656150505</v>
       </c>
       <c r="F23" t="n">
-        <v>486.594702404671</v>
+        <v>416.8996843382766</v>
       </c>
       <c r="G23" t="n">
         <v>225.9042757703924</v>
@@ -5986,22 +5986,22 @@
         <v>52.88006535906113</v>
       </c>
       <c r="I23" t="n">
-        <v>52.88006535906069</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="J23" t="n">
-        <v>164.3365558242285</v>
+        <v>164.336555824229</v>
       </c>
       <c r="K23" t="n">
-        <v>463.6141607939932</v>
+        <v>463.6141607939935</v>
       </c>
       <c r="L23" t="n">
-        <v>884.8645005942217</v>
+        <v>884.8645005942219</v>
       </c>
       <c r="M23" t="n">
         <v>1359.736328233776</v>
       </c>
       <c r="N23" t="n">
-        <v>1821.021250113511</v>
+        <v>1821.021250113512</v>
       </c>
       <c r="O23" t="n">
         <v>2204.356532022459</v>
@@ -6025,16 +6025,16 @@
         <v>2455.271088130702</v>
       </c>
       <c r="V23" t="n">
-        <v>2342.92605097064</v>
+        <v>2273.231032904245</v>
       </c>
       <c r="W23" t="n">
-        <v>2135.330339705842</v>
+        <v>2065.635321639447</v>
       </c>
       <c r="X23" t="n">
-        <v>1908.239418104936</v>
+        <v>1838.544400038542</v>
       </c>
       <c r="Y23" t="n">
-        <v>1669.636781558376</v>
+        <v>1599.941763491981</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>52.88006535906113</v>
       </c>
       <c r="K24" t="n">
-        <v>193.7432525030474</v>
+        <v>322.5373691715781</v>
       </c>
       <c r="L24" t="n">
-        <v>613.5742516168986</v>
+        <v>742.3683682854294</v>
       </c>
       <c r="M24" t="n">
-        <v>1161.633740332248</v>
+        <v>1290.427857000779</v>
       </c>
       <c r="N24" t="n">
-        <v>1737.593635919254</v>
+        <v>1866.387752587785</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.976185915319</v>
+        <v>2317.77030258385</v>
       </c>
       <c r="P24" t="n">
         <v>2538.57135868869</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.80006121258444</v>
+        <v>85.80006121258478</v>
       </c>
       <c r="C25" t="n">
-        <v>69.18950248258052</v>
+        <v>71.12331055186637</v>
       </c>
       <c r="D25" t="n">
-        <v>69.18950248258052</v>
+        <v>71.12331055186637</v>
       </c>
       <c r="E25" t="n">
-        <v>69.18950248258052</v>
+        <v>71.12331055186637</v>
       </c>
       <c r="F25" t="n">
-        <v>69.18950248258052</v>
+        <v>71.12331055186637</v>
       </c>
       <c r="G25" t="n">
-        <v>55.42174578608046</v>
+        <v>55.4217457860804</v>
       </c>
       <c r="H25" t="n">
         <v>52.88006535906113</v>
@@ -6156,25 +6156,25 @@
         <v>242.3238012380909</v>
       </c>
       <c r="M25" t="n">
-        <v>393.0067237995003</v>
+        <v>393.0067237995002</v>
       </c>
       <c r="N25" t="n">
-        <v>543.3412007245506</v>
+        <v>543.3412007245504</v>
       </c>
       <c r="O25" t="n">
-        <v>671.2808691835205</v>
+        <v>671.2808691835203</v>
       </c>
       <c r="P25" t="n">
-        <v>759.4711818413907</v>
+        <v>759.4711818413905</v>
       </c>
       <c r="Q25" t="n">
-        <v>759.4711818413907</v>
+        <v>759.4711818413905</v>
       </c>
       <c r="R25" t="n">
-        <v>759.4711818413907</v>
+        <v>759.4711818413905</v>
       </c>
       <c r="S25" t="n">
-        <v>704.4086922343098</v>
+        <v>704.4086922343097</v>
       </c>
       <c r="T25" t="n">
         <v>627.078079175616</v>
@@ -6186,13 +6186,13 @@
         <v>389.0425787815074</v>
       </c>
       <c r="W25" t="n">
-        <v>257.8253961765077</v>
+        <v>257.8253961765079</v>
       </c>
       <c r="X25" t="n">
-        <v>181.5121509494847</v>
+        <v>181.5121509494849</v>
       </c>
       <c r="Y25" t="n">
-        <v>114.416211019363</v>
+        <v>114.4162110193633</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1531.661673498467</v>
+        <v>1342.86366160085</v>
       </c>
       <c r="C26" t="n">
-        <v>1254.680132608399</v>
+        <v>1230.461715118942</v>
       </c>
       <c r="D26" t="n">
-        <v>986.8083856127473</v>
+        <v>962.5899681232902</v>
       </c>
       <c r="E26" t="n">
-        <v>696.9748834959787</v>
+        <v>672.7564660065216</v>
       </c>
       <c r="F26" t="n">
-        <v>387.7759105832736</v>
+        <v>363.5574930938164</v>
       </c>
       <c r="G26" t="n">
-        <v>77.0984828485183</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="H26" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="I26" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="J26" t="n">
-        <v>164.3365558242285</v>
+        <v>164.336555824229</v>
       </c>
       <c r="K26" t="n">
-        <v>463.6141607939931</v>
+        <v>463.6141607939935</v>
       </c>
       <c r="L26" t="n">
-        <v>884.8645005942217</v>
+        <v>884.8645005942219</v>
       </c>
       <c r="M26" t="n">
         <v>1359.736328233776</v>
       </c>
       <c r="N26" t="n">
-        <v>1821.021250113511</v>
+        <v>1821.021250113512</v>
       </c>
       <c r="O26" t="n">
         <v>2204.356532022459</v>
@@ -6253,25 +6253,25 @@
         <v>2644.003267953056</v>
       </c>
       <c r="S26" t="n">
-        <v>2644.003267953056</v>
+        <v>2572.535556671265</v>
       </c>
       <c r="T26" t="n">
-        <v>2644.003267953056</v>
+        <v>2455.205256055439</v>
       </c>
       <c r="U26" t="n">
-        <v>2644.003267953056</v>
+        <v>2455.205256055439</v>
       </c>
       <c r="V26" t="n">
-        <v>2644.003267953056</v>
+        <v>2455.205256055439</v>
       </c>
       <c r="W26" t="n">
-        <v>2386.420555587782</v>
+        <v>2197.622543690165</v>
       </c>
       <c r="X26" t="n">
-        <v>2109.342632886399</v>
+        <v>1920.544620988782</v>
       </c>
       <c r="Y26" t="n">
-        <v>1820.752995239362</v>
+        <v>1631.954983341745</v>
       </c>
     </row>
     <row r="27">
@@ -6302,10 +6302,10 @@
         <v>112.524239275637</v>
       </c>
       <c r="I27" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="J27" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="K27" t="n">
         <v>193.7432525030474</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.3843259730114</v>
+        <v>409.3843259730113</v>
       </c>
       <c r="C28" t="n">
-        <v>344.7205742118163</v>
+        <v>344.7205742118161</v>
       </c>
       <c r="D28" t="n">
-        <v>296.6008988167036</v>
+        <v>296.6008988167034</v>
       </c>
       <c r="E28" t="n">
-        <v>249.544102355147</v>
+        <v>249.5441023551468</v>
       </c>
       <c r="F28" t="n">
-        <v>202.0156651580487</v>
+        <v>202.0156651580485</v>
       </c>
       <c r="G28" t="n">
-        <v>138.260907361072</v>
+        <v>138.2609073610717</v>
       </c>
       <c r="H28" t="n">
-        <v>85.732225833576</v>
+        <v>85.73222583357571</v>
       </c>
       <c r="I28" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="J28" t="n">
         <v>111.6253328699333</v>
@@ -6390,13 +6390,13 @@
         <v>272.3216148233288</v>
       </c>
       <c r="L28" t="n">
-        <v>506.7964060356827</v>
+        <v>506.7964060356822</v>
       </c>
       <c r="M28" t="n">
-        <v>760.3429972404517</v>
+        <v>760.3429972404512</v>
       </c>
       <c r="N28" t="n">
-        <v>1013.541142808862</v>
+        <v>1013.541142808861</v>
       </c>
       <c r="O28" t="n">
         <v>1244.344479911191</v>
@@ -6408,28 +6408,28 @@
         <v>1517.953968604048</v>
       </c>
       <c r="R28" t="n">
-        <v>1482.951455405631</v>
+        <v>1482.95145540563</v>
       </c>
       <c r="S28" t="n">
         <v>1377.901964698073</v>
       </c>
       <c r="T28" t="n">
-        <v>1250.584350538903</v>
+        <v>1250.584350538902</v>
       </c>
       <c r="U28" t="n">
         <v>1068.357934608294</v>
       </c>
       <c r="V28" t="n">
-        <v>912.574847943841</v>
+        <v>912.5748479438408</v>
       </c>
       <c r="W28" t="n">
-        <v>731.3706642383647</v>
+        <v>731.3706642383645</v>
       </c>
       <c r="X28" t="n">
-        <v>605.070417910865</v>
+        <v>605.0704179108649</v>
       </c>
       <c r="Y28" t="n">
-        <v>487.9874768802667</v>
+        <v>487.9874768802666</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1780.032415824226</v>
+        <v>1310.29879099051</v>
       </c>
       <c r="C29" t="n">
-        <v>1503.050874934158</v>
+        <v>1235.179127938506</v>
       </c>
       <c r="D29" t="n">
         <v>1235.179127938506</v>
@@ -6460,31 +6460,31 @@
         <v>102.4580136624693</v>
       </c>
       <c r="I29" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="J29" t="n">
-        <v>164.3365558242288</v>
+        <v>164.3365558242289</v>
       </c>
       <c r="K29" t="n">
-        <v>463.6141607939933</v>
+        <v>463.6141607939936</v>
       </c>
       <c r="L29" t="n">
-        <v>884.8645005942218</v>
+        <v>884.8645005942221</v>
       </c>
       <c r="M29" t="n">
         <v>1359.736328233776</v>
       </c>
       <c r="N29" t="n">
-        <v>1821.021250113511</v>
+        <v>1821.021250113512</v>
       </c>
       <c r="O29" t="n">
         <v>2204.356532022459</v>
       </c>
       <c r="P29" t="n">
-        <v>2499.366866495501</v>
+        <v>2499.366866495502</v>
       </c>
       <c r="Q29" t="n">
-        <v>2644.003267953056</v>
+        <v>2644.003267953057</v>
       </c>
       <c r="R29" t="n">
         <v>2644.003267953056</v>
@@ -6493,22 +6493,22 @@
         <v>2572.535556671265</v>
       </c>
       <c r="T29" t="n">
-        <v>2455.205256055438</v>
+        <v>2572.535556671265</v>
       </c>
       <c r="U29" t="n">
-        <v>2455.205256055438</v>
+        <v>2422.640385445098</v>
       </c>
       <c r="V29" t="n">
-        <v>2455.205256055438</v>
+        <v>2422.640385445098</v>
       </c>
       <c r="W29" t="n">
-        <v>2455.205256055438</v>
+        <v>2165.057673079824</v>
       </c>
       <c r="X29" t="n">
-        <v>2178.127333354056</v>
+        <v>1887.979750378442</v>
       </c>
       <c r="Y29" t="n">
-        <v>2069.123737565121</v>
+        <v>1599.390112731404</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>112.524239275637</v>
       </c>
       <c r="I30" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="J30" t="n">
-        <v>52.88006535906112</v>
+        <v>136.6350943303454</v>
       </c>
       <c r="K30" t="n">
-        <v>193.7432525030474</v>
+        <v>406.2923981428625</v>
       </c>
       <c r="L30" t="n">
-        <v>613.5742516168986</v>
+        <v>826.1233972567136</v>
       </c>
       <c r="M30" t="n">
-        <v>1161.633740332248</v>
+        <v>1374.182885972063</v>
       </c>
       <c r="N30" t="n">
-        <v>1737.593635919254</v>
+        <v>1548.070013074807</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.976185915319</v>
+        <v>1999.452563070873</v>
       </c>
       <c r="P30" t="n">
-        <v>2538.57135868869</v>
+        <v>2349.047735844244</v>
       </c>
       <c r="Q30" t="n">
         <v>2538.57135868869</v>
@@ -6612,25 +6612,25 @@
         <v>202.0156651580484</v>
       </c>
       <c r="G31" t="n">
-        <v>138.2609073610716</v>
+        <v>138.2609073610717</v>
       </c>
       <c r="H31" t="n">
-        <v>85.73222583357571</v>
+        <v>85.7322258335757</v>
       </c>
       <c r="I31" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="J31" t="n">
         <v>111.6253328699333</v>
       </c>
       <c r="K31" t="n">
-        <v>272.3216148233288</v>
+        <v>272.3216148233289</v>
       </c>
       <c r="L31" t="n">
-        <v>506.7964060356825</v>
+        <v>506.7964060356827</v>
       </c>
       <c r="M31" t="n">
-        <v>760.3429972404515</v>
+        <v>760.3429972404517</v>
       </c>
       <c r="N31" t="n">
         <v>1013.541142808862</v>
@@ -6657,13 +6657,13 @@
         <v>1068.357934608294</v>
       </c>
       <c r="V31" t="n">
-        <v>912.574847943841</v>
+        <v>912.5748479438407</v>
       </c>
       <c r="W31" t="n">
-        <v>731.3706642383646</v>
+        <v>731.3706642383644</v>
       </c>
       <c r="X31" t="n">
-        <v>605.0704179108649</v>
+        <v>605.0704179108648</v>
       </c>
       <c r="Y31" t="n">
         <v>487.9874768802665</v>
@@ -6682,13 +6682,13 @@
         <v>1178.646843247511</v>
       </c>
       <c r="D32" t="n">
-        <v>965.7403129285065</v>
+        <v>965.7403129285069</v>
       </c>
       <c r="E32" t="n">
-        <v>730.8720274883858</v>
+        <v>730.8720274883862</v>
       </c>
       <c r="F32" t="n">
-        <v>476.6382712523284</v>
+        <v>476.6382712523288</v>
       </c>
       <c r="G32" t="n">
         <v>220.9260601942213</v>
@@ -6700,13 +6700,13 @@
         <v>52.88006535906112</v>
       </c>
       <c r="J32" t="n">
-        <v>164.3365558242289</v>
+        <v>164.3365558242288</v>
       </c>
       <c r="K32" t="n">
-        <v>463.6141607939936</v>
+        <v>463.6141607939933</v>
       </c>
       <c r="L32" t="n">
-        <v>884.8645005942219</v>
+        <v>884.8645005942218</v>
       </c>
       <c r="M32" t="n">
         <v>1359.736328233776</v>
@@ -6730,22 +6730,22 @@
         <v>2627.500773347912</v>
       </c>
       <c r="T32" t="n">
-        <v>2565.135689408734</v>
+        <v>2565.135689408733</v>
       </c>
       <c r="U32" t="n">
         <v>2470.205734859215</v>
       </c>
       <c r="V32" t="n">
-        <v>2293.143895208928</v>
+        <v>2293.143895208929</v>
       </c>
       <c r="W32" t="n">
         <v>2090.526399520302</v>
       </c>
       <c r="X32" t="n">
-        <v>1868.413693495567</v>
+        <v>1868.413693495568</v>
       </c>
       <c r="Y32" t="n">
-        <v>1634.789272525177</v>
+        <v>1634.789272525178</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>52.88006535906112</v>
       </c>
       <c r="J33" t="n">
-        <v>52.88006535906112</v>
+        <v>136.6350943303454</v>
       </c>
       <c r="K33" t="n">
-        <v>193.7432525030474</v>
+        <v>136.6350943303454</v>
       </c>
       <c r="L33" t="n">
-        <v>613.5742516168986</v>
+        <v>556.4660934441965</v>
       </c>
       <c r="M33" t="n">
-        <v>1161.633740332248</v>
+        <v>1104.525582159546</v>
       </c>
       <c r="N33" t="n">
-        <v>1737.593635919254</v>
+        <v>1680.485477746552</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.976185915319</v>
+        <v>2131.868027742617</v>
       </c>
       <c r="P33" t="n">
-        <v>2538.57135868869</v>
+        <v>2481.463200515988</v>
       </c>
       <c r="Q33" t="n">
         <v>2538.57135868869</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>125.6257858219538</v>
+        <v>71.36814156393744</v>
       </c>
       <c r="C34" t="n">
-        <v>61.66960647939</v>
+        <v>61.66960647939008</v>
       </c>
       <c r="D34" t="n">
-        <v>61.66960647939</v>
+        <v>61.66960647939008</v>
       </c>
       <c r="E34" t="n">
-        <v>61.66960647939</v>
+        <v>61.66960647939008</v>
       </c>
       <c r="F34" t="n">
-        <v>61.66960647939</v>
+        <v>61.66960647939008</v>
       </c>
       <c r="G34" t="n">
         <v>52.88006535906112</v>
@@ -6885,25 +6885,25 @@
         <v>759.4711818413905</v>
       </c>
       <c r="S34" t="n">
-        <v>709.3869078104808</v>
+        <v>709.3869078104807</v>
       </c>
       <c r="T34" t="n">
-        <v>637.0345103279583</v>
+        <v>637.0345103279581</v>
       </c>
       <c r="U34" t="n">
-        <v>509.7733110739969</v>
+        <v>509.7733110739966</v>
       </c>
       <c r="V34" t="n">
-        <v>408.9554410861919</v>
+        <v>354.6977968281759</v>
       </c>
       <c r="W34" t="n">
-        <v>282.7164740573635</v>
+        <v>228.4588297993474</v>
       </c>
       <c r="X34" t="n">
-        <v>211.3814444065117</v>
+        <v>157.1238001484955</v>
       </c>
       <c r="Y34" t="n">
-        <v>149.2637200525612</v>
+        <v>95.00607579454493</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1178.646843247511</v>
       </c>
       <c r="D35" t="n">
-        <v>965.7403129285075</v>
+        <v>965.7403129285069</v>
       </c>
       <c r="E35" t="n">
-        <v>730.8720274883867</v>
+        <v>730.872027488386</v>
       </c>
       <c r="F35" t="n">
-        <v>476.6382712523294</v>
+        <v>476.6382712523288</v>
       </c>
       <c r="G35" t="n">
-        <v>220.9260601942221</v>
+        <v>220.9260601942213</v>
       </c>
       <c r="H35" t="n">
         <v>52.88006535906112</v>
@@ -6937,10 +6937,10 @@
         <v>52.88006535906112</v>
       </c>
       <c r="J35" t="n">
-        <v>164.3365558242289</v>
+        <v>164.336555824229</v>
       </c>
       <c r="K35" t="n">
-        <v>463.6141607939936</v>
+        <v>463.6141607939935</v>
       </c>
       <c r="L35" t="n">
         <v>884.8645005942219</v>
@@ -7016,25 +7016,25 @@
         <v>52.88006535906112</v>
       </c>
       <c r="J36" t="n">
-        <v>52.88006535906112</v>
+        <v>136.6350943303454</v>
       </c>
       <c r="K36" t="n">
-        <v>52.88006535906112</v>
+        <v>193.7432525030474</v>
       </c>
       <c r="L36" t="n">
-        <v>424.0506287724521</v>
+        <v>613.5742516168986</v>
       </c>
       <c r="M36" t="n">
-        <v>972.1101174878013</v>
+        <v>1161.633740332248</v>
       </c>
       <c r="N36" t="n">
-        <v>1548.070013074807</v>
+        <v>1737.593635919254</v>
       </c>
       <c r="O36" t="n">
-        <v>1999.452563070873</v>
+        <v>2188.976185915319</v>
       </c>
       <c r="P36" t="n">
-        <v>2349.047735844244</v>
+        <v>2538.57135868869</v>
       </c>
       <c r="Q36" t="n">
         <v>2538.57135868869</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>71.36814156393727</v>
+        <v>125.625785821953</v>
       </c>
       <c r="C37" t="n">
-        <v>61.66960647939</v>
+        <v>115.9272507374057</v>
       </c>
       <c r="D37" t="n">
-        <v>61.66960647939</v>
+        <v>115.9272507374057</v>
       </c>
       <c r="E37" t="n">
-        <v>61.66960647939</v>
+        <v>61.66960647939008</v>
       </c>
       <c r="F37" t="n">
-        <v>61.66960647939</v>
+        <v>61.66960647939008</v>
       </c>
       <c r="G37" t="n">
         <v>52.88006535906112</v>
@@ -7116,31 +7116,31 @@
         <v>759.4711818413905</v>
       </c>
       <c r="Q37" t="n">
-        <v>738.7506826558655</v>
+        <v>759.4711818413905</v>
       </c>
       <c r="R37" t="n">
-        <v>738.7506826558655</v>
+        <v>759.4711818413905</v>
       </c>
       <c r="S37" t="n">
-        <v>688.6664086249558</v>
+        <v>709.3869078104807</v>
       </c>
       <c r="T37" t="n">
-        <v>616.3140111424333</v>
+        <v>637.0345103279581</v>
       </c>
       <c r="U37" t="n">
-        <v>489.0528118884719</v>
+        <v>509.7733110739966</v>
       </c>
       <c r="V37" t="n">
-        <v>354.6977968281755</v>
+        <v>408.9554410861915</v>
       </c>
       <c r="W37" t="n">
-        <v>228.458829799347</v>
+        <v>282.716474057363</v>
       </c>
       <c r="X37" t="n">
-        <v>157.1238001484951</v>
+        <v>211.3814444065111</v>
       </c>
       <c r="Y37" t="n">
-        <v>95.00607579454467</v>
+        <v>149.2637200525605</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1178.646843247511</v>
       </c>
       <c r="D38" t="n">
-        <v>965.7403129285067</v>
+        <v>965.7403129285069</v>
       </c>
       <c r="E38" t="n">
-        <v>730.8720274883859</v>
+        <v>730.8720274883863</v>
       </c>
       <c r="F38" t="n">
-        <v>476.6382712523287</v>
+        <v>476.6382712523291</v>
       </c>
       <c r="G38" t="n">
-        <v>220.9260601942213</v>
+        <v>220.9260601942214</v>
       </c>
       <c r="H38" t="n">
         <v>52.88006535906112</v>
@@ -7201,22 +7201,22 @@
         <v>2644.003267953056</v>
       </c>
       <c r="S38" t="n">
-        <v>2627.500773347911</v>
+        <v>2627.500773347912</v>
       </c>
       <c r="T38" t="n">
         <v>2565.135689408733</v>
       </c>
       <c r="U38" t="n">
-        <v>2470.205734859214</v>
+        <v>2470.205734859215</v>
       </c>
       <c r="V38" t="n">
-        <v>2293.143895208928</v>
+        <v>2293.143895208929</v>
       </c>
       <c r="W38" t="n">
-        <v>2090.526399520301</v>
+        <v>2090.526399520302</v>
       </c>
       <c r="X38" t="n">
-        <v>1868.413693495567</v>
+        <v>1868.413693495568</v>
       </c>
       <c r="Y38" t="n">
         <v>1634.789272525178</v>
@@ -7253,25 +7253,25 @@
         <v>52.88006535906112</v>
       </c>
       <c r="J39" t="n">
-        <v>52.88006535906112</v>
+        <v>136.6350943303454</v>
       </c>
       <c r="K39" t="n">
-        <v>322.5373691715781</v>
+        <v>406.2923981428623</v>
       </c>
       <c r="L39" t="n">
-        <v>742.3683682854293</v>
+        <v>826.1233972567136</v>
       </c>
       <c r="M39" t="n">
-        <v>1290.427857000778</v>
+        <v>972.1101174878013</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.387752587784</v>
+        <v>1548.070013074807</v>
       </c>
       <c r="O39" t="n">
-        <v>2317.77030258385</v>
+        <v>1999.452563070873</v>
       </c>
       <c r="P39" t="n">
-        <v>2538.57135868869</v>
+        <v>2349.047735844244</v>
       </c>
       <c r="Q39" t="n">
         <v>2538.57135868869</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.36814156393727</v>
+        <v>116.3823249457226</v>
       </c>
       <c r="C40" t="n">
-        <v>61.66960647939</v>
+        <v>106.6837898611752</v>
       </c>
       <c r="D40" t="n">
-        <v>61.66960647939</v>
+        <v>106.6837898611752</v>
       </c>
       <c r="E40" t="n">
-        <v>61.66960647939</v>
+        <v>106.6837898611752</v>
       </c>
       <c r="F40" t="n">
-        <v>61.66960647939</v>
+        <v>106.6837898611752</v>
       </c>
       <c r="G40" t="n">
-        <v>52.88006535906112</v>
+        <v>97.89424874084624</v>
       </c>
       <c r="H40" t="n">
-        <v>52.88006535906112</v>
+        <v>97.89424874084624</v>
       </c>
       <c r="I40" t="n">
-        <v>52.88006535906112</v>
+        <v>97.89424874084624</v>
       </c>
       <c r="J40" t="n">
         <v>52.88006535906112</v>
@@ -7359,25 +7359,25 @@
         <v>759.4711818413905</v>
       </c>
       <c r="S40" t="n">
-        <v>709.3869078104808</v>
+        <v>709.3869078104807</v>
       </c>
       <c r="T40" t="n">
-        <v>637.0345103279583</v>
+        <v>637.0345103279581</v>
       </c>
       <c r="U40" t="n">
-        <v>509.7733110739969</v>
+        <v>509.7733110739965</v>
       </c>
       <c r="V40" t="n">
-        <v>408.9554410861919</v>
+        <v>408.9554410861915</v>
       </c>
       <c r="W40" t="n">
-        <v>228.458829799347</v>
+        <v>282.7164740573629</v>
       </c>
       <c r="X40" t="n">
-        <v>157.1238001484951</v>
+        <v>211.3814444065109</v>
       </c>
       <c r="Y40" t="n">
-        <v>95.00607579454467</v>
+        <v>140.0202591763301</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1780.032415824227</v>
+        <v>1414.331372882641</v>
       </c>
       <c r="C41" t="n">
-        <v>1503.050874934158</v>
+        <v>1414.331372882641</v>
       </c>
       <c r="D41" t="n">
-        <v>1235.179127938507</v>
+        <v>1235.179127938506</v>
       </c>
       <c r="E41" t="n">
-        <v>945.3456258217379</v>
+        <v>945.3456258217377</v>
       </c>
       <c r="F41" t="n">
-        <v>636.1466529090327</v>
+        <v>636.1466529090326</v>
       </c>
       <c r="G41" t="n">
-        <v>325.4692251742774</v>
+        <v>325.4692251742773</v>
       </c>
       <c r="H41" t="n">
         <v>102.4580136624693</v>
@@ -7411,13 +7411,13 @@
         <v>52.88006535906112</v>
       </c>
       <c r="J41" t="n">
-        <v>164.3365558242289</v>
+        <v>164.3365558242288</v>
       </c>
       <c r="K41" t="n">
-        <v>463.6141607939935</v>
+        <v>463.6141607939933</v>
       </c>
       <c r="L41" t="n">
-        <v>884.8645005942219</v>
+        <v>884.8645005942218</v>
       </c>
       <c r="M41" t="n">
         <v>1359.736328233776</v>
@@ -7441,22 +7441,22 @@
         <v>2644.003267953056</v>
       </c>
       <c r="T41" t="n">
-        <v>2644.003267953056</v>
+        <v>2526.67296733723</v>
       </c>
       <c r="U41" t="n">
-        <v>2644.003267953056</v>
+        <v>2526.67296733723</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.003267953056</v>
+        <v>2526.67296733723</v>
       </c>
       <c r="W41" t="n">
-        <v>2634.791297913541</v>
+        <v>2269.090254971955</v>
       </c>
       <c r="X41" t="n">
-        <v>2357.713375212159</v>
+        <v>1992.012332270573</v>
       </c>
       <c r="Y41" t="n">
-        <v>2069.123737565121</v>
+        <v>1703.422694623536</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>409.3843259730114</v>
+        <v>409.3843259730112</v>
       </c>
       <c r="C43" t="n">
-        <v>344.7205742118163</v>
+        <v>344.7205742118161</v>
       </c>
       <c r="D43" t="n">
-        <v>296.6008988167035</v>
+        <v>296.6008988167034</v>
       </c>
       <c r="E43" t="n">
-        <v>249.5441023551469</v>
+        <v>249.5441023551468</v>
       </c>
       <c r="F43" t="n">
-        <v>202.0156651580486</v>
+        <v>202.0156651580484</v>
       </c>
       <c r="G43" t="n">
-        <v>138.2609073610718</v>
+        <v>138.2609073610717</v>
       </c>
       <c r="H43" t="n">
-        <v>85.73222583357573</v>
+        <v>85.7322258335757</v>
       </c>
       <c r="I43" t="n">
         <v>52.88006535906112</v>
@@ -7575,10 +7575,10 @@
         <v>272.3216148233288</v>
       </c>
       <c r="L43" t="n">
-        <v>506.7964060356825</v>
+        <v>506.7964060356826</v>
       </c>
       <c r="M43" t="n">
-        <v>760.3429972404515</v>
+        <v>760.3429972404516</v>
       </c>
       <c r="N43" t="n">
         <v>1013.541142808862</v>
@@ -7593,28 +7593,28 @@
         <v>1517.953968604048</v>
       </c>
       <c r="R43" t="n">
-        <v>1482.95145540563</v>
+        <v>1482.951455405631</v>
       </c>
       <c r="S43" t="n">
         <v>1377.901964698073</v>
       </c>
       <c r="T43" t="n">
-        <v>1250.584350538902</v>
+        <v>1250.584350538903</v>
       </c>
       <c r="U43" t="n">
         <v>1068.357934608294</v>
       </c>
       <c r="V43" t="n">
-        <v>912.5748479438412</v>
+        <v>912.5748479438408</v>
       </c>
       <c r="W43" t="n">
-        <v>731.3706642383648</v>
+        <v>731.3706642383645</v>
       </c>
       <c r="X43" t="n">
-        <v>605.0704179108652</v>
+        <v>605.0704179108649</v>
       </c>
       <c r="Y43" t="n">
-        <v>487.9874768802667</v>
+        <v>487.9874768802665</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1321.500467070435</v>
+        <v>1588.725938912428</v>
       </c>
       <c r="C44" t="n">
-        <v>1321.500467070435</v>
+        <v>1311.74439802236</v>
       </c>
       <c r="D44" t="n">
         <v>1235.179127938506</v>
@@ -7678,22 +7678,22 @@
         <v>2644.003267953056</v>
       </c>
       <c r="T44" t="n">
-        <v>2526.67296733723</v>
+        <v>2644.003267953056</v>
       </c>
       <c r="U44" t="n">
-        <v>2376.777796111063</v>
+        <v>2644.003267953056</v>
       </c>
       <c r="V44" t="n">
-        <v>2144.750739784129</v>
+        <v>2411.976211626122</v>
       </c>
       <c r="W44" t="n">
-        <v>1887.168027418854</v>
+        <v>2154.393499260847</v>
       </c>
       <c r="X44" t="n">
-        <v>1610.090104717472</v>
+        <v>1877.315576559465</v>
       </c>
       <c r="Y44" t="n">
-        <v>1321.500467070435</v>
+        <v>1588.725938912428</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>322.5373691715781</v>
       </c>
       <c r="L45" t="n">
-        <v>742.3683682854293</v>
+        <v>613.5742516168986</v>
       </c>
       <c r="M45" t="n">
-        <v>1290.427857000778</v>
+        <v>1161.633740332248</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.387752587784</v>
+        <v>1737.593635919254</v>
       </c>
       <c r="O45" t="n">
-        <v>1999.452563070873</v>
+        <v>2188.976185915319</v>
       </c>
       <c r="P45" t="n">
-        <v>2349.047735844244</v>
+        <v>2538.57135868869</v>
       </c>
       <c r="Q45" t="n">
         <v>2538.57135868869</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>409.3843259730113</v>
+        <v>409.3843259730114</v>
       </c>
       <c r="C46" t="n">
-        <v>344.7205742118161</v>
+        <v>344.7205742118163</v>
       </c>
       <c r="D46" t="n">
-        <v>296.6008988167034</v>
+        <v>296.6008988167035</v>
       </c>
       <c r="E46" t="n">
-        <v>249.5441023551468</v>
+        <v>249.5441023551469</v>
       </c>
       <c r="F46" t="n">
         <v>202.0156651580485</v>
       </c>
       <c r="G46" t="n">
-        <v>138.2609073610717</v>
+        <v>138.2609073610718</v>
       </c>
       <c r="H46" t="n">
         <v>85.73222583357571</v>
@@ -7842,16 +7842,16 @@
         <v>1068.357934608294</v>
       </c>
       <c r="V46" t="n">
-        <v>912.5748479438408</v>
+        <v>912.574847943841</v>
       </c>
       <c r="W46" t="n">
-        <v>731.3706642383645</v>
+        <v>731.3706642383646</v>
       </c>
       <c r="X46" t="n">
         <v>605.0704179108649</v>
       </c>
       <c r="Y46" t="n">
-        <v>487.9874768802666</v>
+        <v>487.9874768802667</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
         <v>314.5524032714785</v>
       </c>
       <c r="L2" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M2" t="n">
         <v>322.8857137945909</v>
@@ -7993,10 +7993,10 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
-        <v>244.4743776485593</v>
+        <v>317.2001799443227</v>
       </c>
       <c r="P2" t="n">
-        <v>323.6062083485883</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q2" t="n">
         <v>180.6233730229902</v>
@@ -8057,28 +8057,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>247.7255684640984</v>
+        <v>242.2415523308688</v>
       </c>
       <c r="L3" t="n">
-        <v>181.9580424594851</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O3" t="n">
         <v>251.5888479085429</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q3" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8221,7 +8221,7 @@
         <v>314.5524032714785</v>
       </c>
       <c r="L5" t="n">
-        <v>327.2896114605464</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M5" t="n">
         <v>187.1563144971591</v>
@@ -8230,10 +8230,10 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O5" t="n">
-        <v>186.9547967801205</v>
+        <v>284.8176621111052</v>
       </c>
       <c r="P5" t="n">
-        <v>285.7396743821413</v>
+        <v>323.6062083485883</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8297,10 +8297,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685796</v>
       </c>
       <c r="M6" t="n">
         <v>251.2133018590717</v>
@@ -8309,10 +8309,10 @@
         <v>176.0977499560457</v>
       </c>
       <c r="O6" t="n">
-        <v>251.5888479085429</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
-        <v>244.5836053215751</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
         <v>113.7351914448925</v>
@@ -8455,25 +8455,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
-        <v>236.3425848424856</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M8" t="n">
-        <v>322.8857137945909</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>322.1275134696619</v>
       </c>
       <c r="O8" t="n">
         <v>322.6841960775522</v>
       </c>
       <c r="P8" t="n">
-        <v>323.6062083485883</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>238.1429538914291</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8537,19 +8537,19 @@
         <v>247.7255684640984</v>
       </c>
       <c r="L9" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>251.2133018590717</v>
+        <v>184.8665114499772</v>
       </c>
       <c r="N9" t="n">
-        <v>176.0977499560457</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O9" t="n">
         <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8768,10 +8768,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>79.31730657759788</v>
+        <v>79.31730657759789</v>
       </c>
       <c r="K12" t="n">
-        <v>71.42369315421382</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8780,7 +8780,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>301.6120164314909</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8789,7 +8789,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>223.9485188036136</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9008,16 +9008,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>71.42369315421382</v>
+        <v>71.42369315421385</v>
       </c>
       <c r="L15" t="n">
-        <v>348.3394542765732</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>489.392092028696</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9242,10 +9242,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>79.31730657759786</v>
+        <v>79.31730657759788</v>
       </c>
       <c r="K18" t="n">
-        <v>71.42369315421382</v>
+        <v>71.42369315421384</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9500,7 +9500,7 @@
         <v>199.3054925250345</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.66247118342557</v>
+        <v>81.66247118342558</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9716,10 +9716,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>79.31730657759786</v>
+        <v>79.31730657759789</v>
       </c>
       <c r="K24" t="n">
-        <v>213.709740774402</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9734,10 +9734,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>283.9065318899678</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.66247118342557</v>
+        <v>81.66247118342558</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,7 +9953,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>79.31730657759786</v>
+        <v>79.31730657759789</v>
       </c>
       <c r="K27" t="n">
         <v>213.709740774402</v>
@@ -9974,7 +9974,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.66247118342557</v>
+        <v>81.66247118342558</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10190,10 +10190,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>79.31730657759789</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>213.709740774402</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10202,7 +10202,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>217.0109770665575</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10211,7 +10211,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.66247118342559</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10427,10 +10427,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>79.31730657759789</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>213.709740774402</v>
+        <v>71.42369315421385</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10448,7 +10448,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.66247118342559</v>
+        <v>139.3474794386803</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10664,13 +10664,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>79.31730657759789</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>71.42369315421385</v>
+        <v>129.1087014094684</v>
       </c>
       <c r="L36" t="n">
-        <v>432.9404936415068</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10685,7 +10685,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>81.66247118342559</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10843,7 +10843,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578763</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10901,7 +10901,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>79.31730657759789</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10910,7 +10910,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>199.2824732949378</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -10919,10 +10919,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>283.9065318899683</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.66247118342559</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11381,7 +11381,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>351.9973815525467</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11390,13 +11390,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>190.48794484462</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>81.66247118342559</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23260,7 +23260,7 @@
         <v>286.2004085234856</v>
       </c>
       <c r="C11" t="n">
-        <v>274.2117254811674</v>
+        <v>254.8363952181631</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>220.7810993966899</v>
       </c>
       <c r="I11" t="n">
-        <v>49.08216882037409</v>
+        <v>49.08216882037412</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.75303416897349</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>116.1569976096678</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>14.49573735504373</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>286.2004085234856</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>184.0833610491891</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>220.7810993966899</v>
+        <v>220.78109939669</v>
       </c>
       <c r="I14" t="n">
-        <v>49.08216882037409</v>
+        <v>49.08216882037415</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.75303416897349</v>
+        <v>70.75303416897354</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>116.1569976096679</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>148.3962195139052</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>205.7305524491021</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>21.26590307950157</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>47.7321648062296</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>68.99806788573093</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>47.73216480622857</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>21.26590307950157</v>
+        <v>21.26590307950152</v>
       </c>
       <c r="T20" t="n">
-        <v>47.7321648062296</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>68.99806788573031</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>68.99806788573144</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>162.9337984640782</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>196.8048660821273</v>
+        <v>220.7810993966899</v>
       </c>
       <c r="I26" t="n">
-        <v>49.08216882037407</v>
+        <v>49.08216882037409</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.75303416897347</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>116.1569976096678</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>148.3962195139051</v>
+        <v>148.3962195139052</v>
       </c>
       <c r="V26" t="n">
         <v>229.7067857636648</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>199.8432590596842</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>265.1930295256954</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>116.1569976096678</v>
       </c>
       <c r="U29" t="n">
-        <v>148.3962195139052</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>229.7067857636648</v>
       </c>
       <c r="W29" t="n">
-        <v>255.0068852416217</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>177.790181439521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>274.2117254811674</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>87.83230703100196</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>70.75303416897353</v>
+        <v>70.7530341689735</v>
       </c>
       <c r="T41" t="n">
-        <v>116.1569976096678</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>148.3962195139052</v>
@@ -25690,7 +25690,7 @@
         <v>229.7067857636648</v>
       </c>
       <c r="W41" t="n">
-        <v>245.8870349025017</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25867,10 +25867,10 @@
         <v>286.2004085234856</v>
       </c>
       <c r="C44" t="n">
-        <v>274.2117254811674</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>179.7349037850862</v>
+        <v>189.3934121426805</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>70.7530341689735</v>
+        <v>70.75303416897351</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>116.1569976096678</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>148.3962195139052</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>634879.123842522</v>
+        <v>634879.1238425219</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634879.123842522</v>
+        <v>634879.1238425219</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>680647.058473784</v>
+        <v>680647.0584737842</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>634879.1238425218</v>
+        <v>634879.1238425219</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>684903.5492816549</v>
+        <v>684903.5492816548</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>748433.4589818275</v>
       </c>
       <c r="C2" t="n">
-        <v>748433.4589818276</v>
+        <v>748433.4589818271</v>
       </c>
       <c r="D2" t="n">
-        <v>748433.4589818275</v>
+        <v>748433.4589818277</v>
       </c>
       <c r="E2" t="n">
-        <v>685499.5043971123</v>
+        <v>685499.5043971125</v>
       </c>
       <c r="F2" t="n">
         <v>685499.5043971123</v>
       </c>
       <c r="G2" t="n">
-        <v>743078.5189332167</v>
+        <v>743078.5189332165</v>
       </c>
       <c r="H2" t="n">
         <v>743078.5189332165</v>
       </c>
       <c r="I2" t="n">
-        <v>743078.5189332166</v>
+        <v>743078.5189332165</v>
       </c>
       <c r="J2" t="n">
-        <v>685499.5043971124</v>
+        <v>685499.5043971123</v>
       </c>
       <c r="K2" t="n">
-        <v>685499.5043971124</v>
+        <v>685499.5043971128</v>
       </c>
       <c r="L2" t="n">
         <v>748433.4589818271</v>
       </c>
       <c r="M2" t="n">
+        <v>748433.4589818274</v>
+      </c>
+      <c r="N2" t="n">
         <v>748433.4589818276</v>
       </c>
-      <c r="N2" t="n">
-        <v>748433.4589818274</v>
-      </c>
       <c r="O2" t="n">
-        <v>685499.5043971129</v>
+        <v>685499.5043971124</v>
       </c>
       <c r="P2" t="n">
-        <v>685499.5043971121</v>
+        <v>685499.5043971126</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45486.0434807532</v>
+        <v>45486.04348075322</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>333804.0855531396</v>
+        <v>333804.0855531395</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>39589.70487157752</v>
+        <v>39589.70487157763</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79045.23455768233</v>
+        <v>79045.2345576823</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26432,13 +26432,13 @@
         <v>198225.4646348379</v>
       </c>
       <c r="G4" t="n">
-        <v>231695.9114687796</v>
+        <v>231695.9114687797</v>
       </c>
       <c r="H4" t="n">
-        <v>231695.9114687796</v>
+        <v>231695.9114687797</v>
       </c>
       <c r="I4" t="n">
-        <v>231695.9114687796</v>
+        <v>231695.9114687797</v>
       </c>
       <c r="J4" t="n">
         <v>198225.4646348379</v>
@@ -26447,13 +26447,13 @@
         <v>198225.4646348379</v>
       </c>
       <c r="L4" t="n">
-        <v>234830.7047727685</v>
+        <v>234830.7047727684</v>
       </c>
       <c r="M4" t="n">
         <v>234830.7047727684</v>
       </c>
       <c r="N4" t="n">
-        <v>234830.7047727684</v>
+        <v>234830.7047727683</v>
       </c>
       <c r="O4" t="n">
         <v>198225.4646348379</v>
@@ -26478,34 +26478,34 @@
         <v>41879.94747728385</v>
       </c>
       <c r="E5" t="n">
+        <v>51470.35590256678</v>
+      </c>
+      <c r="F5" t="n">
+        <v>51470.35590256678</v>
+      </c>
+      <c r="G5" t="n">
+        <v>55630.68952612759</v>
+      </c>
+      <c r="H5" t="n">
+        <v>55630.68952612761</v>
+      </c>
+      <c r="I5" t="n">
+        <v>55630.68952612761</v>
+      </c>
+      <c r="J5" t="n">
         <v>51470.35590256679</v>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
         <v>51470.35590256679</v>
       </c>
-      <c r="G5" t="n">
-        <v>55630.6895261276</v>
-      </c>
-      <c r="H5" t="n">
-        <v>55630.6895261276</v>
-      </c>
-      <c r="I5" t="n">
-        <v>55630.6895261276</v>
-      </c>
-      <c r="J5" t="n">
-        <v>51470.35590256678</v>
-      </c>
-      <c r="K5" t="n">
-        <v>51470.35590256678</v>
-      </c>
       <c r="L5" t="n">
-        <v>56045.017995348</v>
+        <v>56045.01799534799</v>
       </c>
       <c r="M5" t="n">
-        <v>56045.017995348</v>
+        <v>56045.01799534799</v>
       </c>
       <c r="N5" t="n">
-        <v>56045.017995348</v>
+        <v>56045.01799534798</v>
       </c>
       <c r="O5" t="n">
         <v>51470.35590256678</v>
@@ -26524,46 +26524,46 @@
         <v>318306.8529746938</v>
       </c>
       <c r="C6" t="n">
-        <v>363792.8964554471</v>
+        <v>363792.8964554467</v>
       </c>
       <c r="D6" t="n">
-        <v>363792.8964554471</v>
+        <v>363792.8964554473</v>
       </c>
       <c r="E6" t="n">
-        <v>101999.598306568</v>
+        <v>100385.9071633705</v>
       </c>
       <c r="F6" t="n">
-        <v>435803.6838597076</v>
+        <v>434189.9927165098</v>
       </c>
       <c r="G6" t="n">
-        <v>416162.213066732</v>
+        <v>416024.9069116389</v>
       </c>
       <c r="H6" t="n">
-        <v>455751.9179383092</v>
+        <v>455614.6117832165</v>
       </c>
       <c r="I6" t="n">
-        <v>455751.9179383093</v>
+        <v>455614.6117832165</v>
       </c>
       <c r="J6" t="n">
-        <v>356758.4493020254</v>
+        <v>355144.7581588274</v>
       </c>
       <c r="K6" t="n">
-        <v>435803.6838597078</v>
+        <v>434189.9927165102</v>
       </c>
       <c r="L6" t="n">
         <v>374435.5797342281</v>
       </c>
       <c r="M6" t="n">
-        <v>326657.9978394851</v>
+        <v>326657.9978394849</v>
       </c>
       <c r="N6" t="n">
-        <v>457557.736213711</v>
+        <v>457557.7362137113</v>
       </c>
       <c r="O6" t="n">
-        <v>435803.6838597083</v>
+        <v>434189.9927165098</v>
       </c>
       <c r="P6" t="n">
-        <v>435803.6838597074</v>
+        <v>434189.9927165102</v>
       </c>
     </row>
   </sheetData>
@@ -26700,13 +26700,13 @@
         <v>103.9026955993533</v>
       </c>
       <c r="G2" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="H2" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="I2" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="J2" t="n">
         <v>103.9026955993533</v>
@@ -26715,13 +26715,13 @@
         <v>103.9026955993533</v>
       </c>
       <c r="L2" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="M2" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="N2" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="O2" t="n">
         <v>103.9026955993533</v>
@@ -26746,25 +26746,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>116.8124088687291</v>
+      </c>
+      <c r="F3" t="n">
+        <v>116.8124088687291</v>
+      </c>
+      <c r="G3" t="n">
+        <v>116.8124088687291</v>
+      </c>
+      <c r="H3" t="n">
+        <v>116.8124088687291</v>
+      </c>
+      <c r="I3" t="n">
+        <v>116.8124088687291</v>
+      </c>
+      <c r="J3" t="n">
+        <v>116.8124088687291</v>
+      </c>
+      <c r="K3" t="n">
         <v>116.8124088687292</v>
-      </c>
-      <c r="F3" t="n">
-        <v>116.8124088687292</v>
-      </c>
-      <c r="G3" t="n">
-        <v>116.8124088687292</v>
-      </c>
-      <c r="H3" t="n">
-        <v>116.8124088687292</v>
-      </c>
-      <c r="I3" t="n">
-        <v>116.8124088687292</v>
-      </c>
-      <c r="J3" t="n">
-        <v>116.8124088687292</v>
-      </c>
-      <c r="K3" t="n">
-        <v>116.8124088687291</v>
       </c>
       <c r="L3" t="n">
         <v>116.8124088687291</v>
@@ -26798,13 +26798,13 @@
         <v>135.7293992974318</v>
       </c>
       <c r="E4" t="n">
-        <v>661.0008169882641</v>
+        <v>661.000816988264</v>
       </c>
       <c r="F4" t="n">
         <v>661.0008169882641</v>
       </c>
       <c r="G4" t="n">
-        <v>661.0008169882641</v>
+        <v>661.000816988264</v>
       </c>
       <c r="H4" t="n">
         <v>661.0008169882641</v>
@@ -26813,10 +26813,10 @@
         <v>661.0008169882641</v>
       </c>
       <c r="J4" t="n">
-        <v>661.000816988264</v>
+        <v>661.0008169882641</v>
       </c>
       <c r="K4" t="n">
-        <v>661.000816988264</v>
+        <v>661.0008169882641</v>
       </c>
       <c r="L4" t="n">
         <v>661.000816988264</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>49.4871310894719</v>
+        <v>49.48713108947203</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.41556450988141</v>
+        <v>54.41556450988131</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8124088687292</v>
+        <v>116.8124088687291</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>135.7293992974317</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2714176908323</v>
+        <v>525.2714176908322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.4871310894719</v>
+        <v>49.48713108947203</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.41556450988141</v>
+        <v>54.41556450988131</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>242.3850217830889</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>271.497895687156</v>
       </c>
       <c r="E2" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>274.2802794854996</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>292.3924917791759</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>35.35962750586017</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886716</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -27444,7 +27444,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27472,7 +27472,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27511,10 +27511,10 @@
         <v>15.54209281995534</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>51.06885349824287</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>186.8533578306755</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -27523,7 +27523,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>158.1931472735023</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -27554,10 +27554,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>97.68513006730998</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>7.031614655916485</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>224.2245484145822</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V4" t="n">
         <v>122.3985520997298</v>
       </c>
       <c r="W4" t="n">
-        <v>147.5654381703431</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>93.21054016614622</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27627,13 +27627,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>274.2802794854996</v>
+        <v>380.1911275208586</v>
       </c>
       <c r="G5" t="n">
         <v>276.2135473829221</v>
       </c>
       <c r="H5" t="n">
-        <v>299.6745103965911</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -27681,7 +27681,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27700,7 +27700,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>46.42479854888155</v>
       </c>
       <c r="E6" t="n">
         <v>9.828330546265704</v>
@@ -27709,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>95.6021891021434</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -27788,16 +27788,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>28.47610867058775</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291754</v>
       </c>
       <c r="T7" t="n">
         <v>95.11776435504618</v>
       </c>
       <c r="U7" t="n">
-        <v>262.3765163474303</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -27861,10 +27861,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>290.4592238817534</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G8" t="n">
         <v>276.2135473829221</v>
@@ -27873,7 +27873,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>35.35962750586017</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>102.564901905121</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27921,7 +27921,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="9">
@@ -27934,7 +27934,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>40.53618113027693</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>155.9458157924987</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871759</v>
       </c>
       <c r="W9" t="n">
         <v>103.1733107815913</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355158</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>45.99041570010425</v>
       </c>
       <c r="C10" t="n">
         <v>32.19041054550473</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>15.81177494308312</v>
       </c>
       <c r="E10" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
@@ -28028,13 +28028,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>76.38043180018902</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>12.2971642743338</v>
+        <v>126.0847428034047</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -28137,7 +28137,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>60.23354191608887</v>
+        <v>60.23354191608888</v>
       </c>
       <c r="S11" t="n">
         <v>103.9026955993533</v>
@@ -28374,7 +28374,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>60.23354191608887</v>
+        <v>60.23354191608888</v>
       </c>
       <c r="S14" t="n">
         <v>103.9026955993533</v>
@@ -28514,7 +28514,7 @@
         <v>103.9026955993533</v>
       </c>
       <c r="L16" t="n">
-        <v>103.9026955993536</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="M16" t="n">
         <v>103.9026955993533</v>
@@ -28529,7 +28529,7 @@
         <v>103.9026955993533</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.9026955993533</v>
+        <v>103.9026955993551</v>
       </c>
       <c r="R16" t="n">
         <v>103.9026955993533</v>
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="C17" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="D17" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="E17" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="F17" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="G17" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="H17" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="I17" t="n">
         <v>152.9848644197274</v>
@@ -28614,25 +28614,25 @@
         <v>60.23354191608887</v>
       </c>
       <c r="S17" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="T17" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="U17" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="V17" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="W17" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="X17" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="Y17" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
     </row>
     <row r="18">
@@ -28721,10 +28721,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>151.4753567002326</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="C19" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28736,16 +28736,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="H19" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="I19" t="n">
         <v>136.4263344691227</v>
       </c>
       <c r="J19" t="n">
-        <v>44.56404154796725</v>
+        <v>44.56404154796726</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28772,25 +28772,25 @@
         <v>138.5551836657863</v>
       </c>
       <c r="S19" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="T19" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="U19" t="n">
-        <v>153.3898266888252</v>
+        <v>151.4753567002322</v>
       </c>
       <c r="V19" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="W19" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="X19" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="C20" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="D20" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="E20" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="F20" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="G20" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="H20" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="I20" t="n">
         <v>152.9848644197274</v>
@@ -28848,28 +28848,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>60.23354191608887</v>
+        <v>60.23354191608888</v>
       </c>
       <c r="S20" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="T20" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="U20" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="V20" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="W20" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="X20" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="Y20" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
     </row>
     <row r="21">
@@ -28958,10 +28958,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="C22" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28973,10 +28973,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="H22" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="I22" t="n">
         <v>136.4263344691227</v>
@@ -29003,31 +29003,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.51329419366975</v>
+        <v>20.51329419366976</v>
       </c>
       <c r="R22" t="n">
         <v>138.5551836657863</v>
       </c>
       <c r="S22" t="n">
-        <v>151.4753567002327</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="T22" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="U22" t="n">
-        <v>153.3898266888252</v>
+        <v>151.4753567002322</v>
       </c>
       <c r="V22" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="W22" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="X22" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="C23" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="D23" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="E23" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="F23" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="G23" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="H23" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="I23" t="n">
         <v>152.9848644197274</v>
@@ -29085,28 +29085,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>60.23354191608887</v>
+        <v>60.23354191608888</v>
       </c>
       <c r="S23" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="T23" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="U23" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="V23" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="W23" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="X23" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="Y23" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
     </row>
     <row r="24">
@@ -29195,10 +29195,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="C25" t="n">
-        <v>151.4753567002326</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29210,16 +29210,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>153.3898266888252</v>
+        <v>151.4753567002322</v>
       </c>
       <c r="H25" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="I25" t="n">
         <v>136.4263344691227</v>
       </c>
       <c r="J25" t="n">
-        <v>44.56404154796725</v>
+        <v>44.56404154796726</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29240,31 +29240,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.51329419366975</v>
+        <v>20.51329419366976</v>
       </c>
       <c r="R25" t="n">
         <v>138.5551836657863</v>
       </c>
       <c r="S25" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="T25" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="U25" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="V25" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="W25" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="X25" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.3898266888252</v>
+        <v>153.3898266888253</v>
       </c>
     </row>
     <row r="26">
@@ -29322,7 +29322,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>60.23354191608887</v>
+        <v>60.23354191608888</v>
       </c>
       <c r="S26" t="n">
         <v>103.9026955993533</v>
@@ -29559,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>60.23354191608889</v>
+        <v>60.23354191608887</v>
       </c>
       <c r="S29" t="n">
         <v>103.9026955993533</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="C32" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="D32" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="E32" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="F32" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="G32" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="H32" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="I32" t="n">
         <v>152.9848644197274</v>
@@ -29796,28 +29796,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>60.23354191608889</v>
+        <v>60.23354191608888</v>
       </c>
       <c r="S32" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="T32" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="U32" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="V32" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="W32" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="X32" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="Y32" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
     </row>
     <row r="33">
@@ -29906,10 +29906,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="C34" t="n">
-        <v>104.6031922937984</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -29921,7 +29921,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="H34" t="n">
         <v>155.9060903115744</v>
@@ -29957,25 +29957,25 @@
         <v>138.5551836657863</v>
       </c>
       <c r="S34" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="T34" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="U34" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="V34" t="n">
-        <v>158.3182601092347</v>
+        <v>104.6031922937992</v>
       </c>
       <c r="W34" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="X34" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="Y34" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="C35" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="D35" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="E35" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="F35" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="G35" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="H35" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="I35" t="n">
         <v>152.9848644197274</v>
@@ -30036,25 +30036,25 @@
         <v>60.23354191608889</v>
       </c>
       <c r="S35" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="T35" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="U35" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="V35" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="W35" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="X35" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="Y35" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
     </row>
     <row r="36">
@@ -30143,22 +30143,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="C37" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>96.77385628085889</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="H37" t="n">
         <v>155.9060903115744</v>
@@ -30188,31 +30188,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>20.51329419366976</v>
       </c>
       <c r="R37" t="n">
         <v>138.5551836657863</v>
       </c>
       <c r="S37" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="T37" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="U37" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="V37" t="n">
-        <v>125.1164864874682</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="W37" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="X37" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="Y37" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="C38" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="D38" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="E38" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="F38" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="G38" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="H38" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="I38" t="n">
         <v>152.9848644197274</v>
@@ -30273,25 +30273,25 @@
         <v>60.23354191608889</v>
       </c>
       <c r="S38" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="T38" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="U38" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="V38" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="W38" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="X38" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="Y38" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
     </row>
     <row r="39">
@@ -30380,10 +30380,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="C40" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30395,7 +30395,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="H40" t="n">
         <v>155.9060903115744</v>
@@ -30404,7 +30404,7 @@
         <v>136.4263344691227</v>
       </c>
       <c r="J40" t="n">
-        <v>44.56404154796726</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30431,25 +30431,25 @@
         <v>138.5551836657863</v>
       </c>
       <c r="S40" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="T40" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="U40" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="V40" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="W40" t="n">
-        <v>104.6031922937984</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="X40" t="n">
-        <v>158.3182601092347</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="Y40" t="n">
-        <v>158.3182601092347</v>
+        <v>149.1672338417667</v>
       </c>
     </row>
     <row r="41">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4695976235928807</v>
+        <v>0.4695976235928805</v>
       </c>
       <c r="H11" t="n">
-        <v>4.80926666262059</v>
+        <v>4.809266662620589</v>
       </c>
       <c r="I11" t="n">
-        <v>18.10416238356455</v>
+        <v>18.10416238356454</v>
       </c>
       <c r="J11" t="n">
-        <v>39.85651130541629</v>
+        <v>39.85651130541628</v>
       </c>
       <c r="K11" t="n">
-        <v>59.73457871210294</v>
+        <v>59.73457871210292</v>
       </c>
       <c r="L11" t="n">
-        <v>74.10602698513358</v>
+        <v>74.10602698513355</v>
       </c>
       <c r="M11" t="n">
-        <v>82.45723372370347</v>
+        <v>82.45723372370344</v>
       </c>
       <c r="N11" t="n">
-        <v>83.79147797173674</v>
+        <v>83.79147797173671</v>
       </c>
       <c r="O11" t="n">
-        <v>79.12191660213503</v>
+        <v>79.121916602135</v>
       </c>
       <c r="P11" t="n">
-        <v>67.52872526968578</v>
+        <v>67.52872526968575</v>
       </c>
       <c r="Q11" t="n">
-        <v>50.71126037476573</v>
+        <v>50.71126037476571</v>
       </c>
       <c r="R11" t="n">
-        <v>29.49836172301632</v>
+        <v>29.49836172301631</v>
       </c>
       <c r="S11" t="n">
-        <v>10.70095584762278</v>
+        <v>10.70095584762277</v>
       </c>
       <c r="T11" t="n">
-        <v>2.055663597277836</v>
+        <v>2.055663597277835</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03756780988743044</v>
+        <v>0.03756780988743043</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2512568794534929</v>
+        <v>0.2512568794534928</v>
       </c>
       <c r="H12" t="n">
-        <v>2.426612493669261</v>
+        <v>2.42661249366926</v>
       </c>
       <c r="I12" t="n">
-        <v>8.650730279429471</v>
+        <v>8.650730279429469</v>
       </c>
       <c r="J12" t="n">
-        <v>23.73826508906882</v>
+        <v>23.73826508906881</v>
       </c>
       <c r="K12" t="n">
-        <v>40.57247601245285</v>
+        <v>40.57247601245283</v>
       </c>
       <c r="L12" t="n">
-        <v>54.55470095326827</v>
+        <v>54.55470095326826</v>
       </c>
       <c r="M12" t="n">
-        <v>63.66276283345738</v>
+        <v>63.66276283345736</v>
       </c>
       <c r="N12" t="n">
-        <v>65.34772673119595</v>
+        <v>65.34772673119592</v>
       </c>
       <c r="O12" t="n">
-        <v>59.78040324435802</v>
+        <v>59.780403244358</v>
       </c>
       <c r="P12" t="n">
-        <v>47.97904393704462</v>
+        <v>47.97904393704461</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.07272026146692</v>
+        <v>32.07272026146691</v>
       </c>
       <c r="R12" t="n">
-        <v>15.59996660326161</v>
+        <v>15.5999666032616</v>
       </c>
       <c r="S12" t="n">
-        <v>4.666986335462902</v>
+        <v>4.666986335462901</v>
       </c>
       <c r="T12" t="n">
         <v>1.012741544814736</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2106453274682001</v>
+        <v>0.2106453274682</v>
       </c>
       <c r="H13" t="n">
-        <v>1.872828456944544</v>
+        <v>1.872828456944543</v>
       </c>
       <c r="I13" t="n">
-        <v>6.33467948422551</v>
+        <v>6.334679484225508</v>
       </c>
       <c r="J13" t="n">
         <v>14.89262465200174</v>
       </c>
       <c r="K13" t="n">
-        <v>24.47315713675997</v>
+        <v>24.47315713675996</v>
       </c>
       <c r="L13" t="n">
-        <v>31.31721532195404</v>
+        <v>31.31721532195403</v>
       </c>
       <c r="M13" t="n">
-        <v>33.01961255940158</v>
+        <v>33.01961255940157</v>
       </c>
       <c r="N13" t="n">
-        <v>32.23447997520195</v>
+        <v>32.23447997520194</v>
       </c>
       <c r="O13" t="n">
-        <v>29.77375955886887</v>
+        <v>29.77375955886886</v>
       </c>
       <c r="P13" t="n">
-        <v>25.47659487851757</v>
+        <v>25.47659487851756</v>
       </c>
       <c r="Q13" t="n">
         <v>17.6386737391781</v>
       </c>
       <c r="R13" t="n">
-        <v>9.471379905979248</v>
+        <v>9.471379905979246</v>
       </c>
       <c r="S13" t="n">
-        <v>3.670973570513995</v>
+        <v>3.670973570513993</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9000300355459456</v>
+        <v>0.9000300355459453</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01148974513462911</v>
+        <v>0.0114897451346291</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4695976235928807</v>
+        <v>0.4695976235928805</v>
       </c>
       <c r="H14" t="n">
-        <v>4.80926666262059</v>
+        <v>4.809266662620589</v>
       </c>
       <c r="I14" t="n">
-        <v>18.10416238356455</v>
+        <v>18.10416238356454</v>
       </c>
       <c r="J14" t="n">
-        <v>39.8565113054163</v>
+        <v>39.85651130541628</v>
       </c>
       <c r="K14" t="n">
-        <v>59.73457871210294</v>
+        <v>59.73457871210292</v>
       </c>
       <c r="L14" t="n">
-        <v>74.10602698513358</v>
+        <v>74.10602698513355</v>
       </c>
       <c r="M14" t="n">
-        <v>82.45723372370347</v>
+        <v>82.45723372370344</v>
       </c>
       <c r="N14" t="n">
-        <v>83.79147797173675</v>
+        <v>83.79147797173671</v>
       </c>
       <c r="O14" t="n">
-        <v>79.12191660213504</v>
+        <v>79.121916602135</v>
       </c>
       <c r="P14" t="n">
-        <v>67.52872526968579</v>
+        <v>67.52872526968575</v>
       </c>
       <c r="Q14" t="n">
-        <v>50.71126037476573</v>
+        <v>50.71126037476571</v>
       </c>
       <c r="R14" t="n">
-        <v>29.49836172301632</v>
+        <v>29.49836172301631</v>
       </c>
       <c r="S14" t="n">
-        <v>10.70095584762278</v>
+        <v>10.70095584762277</v>
       </c>
       <c r="T14" t="n">
-        <v>2.055663597277837</v>
+        <v>2.055663597277835</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03756780988743045</v>
+        <v>0.03756780988743043</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.251256879453493</v>
+        <v>0.2512568794534928</v>
       </c>
       <c r="H15" t="n">
-        <v>2.426612493669261</v>
+        <v>2.42661249366926</v>
       </c>
       <c r="I15" t="n">
-        <v>8.650730279429473</v>
+        <v>8.650730279429469</v>
       </c>
       <c r="J15" t="n">
-        <v>23.73826508906883</v>
+        <v>23.73826508906881</v>
       </c>
       <c r="K15" t="n">
-        <v>40.57247601245285</v>
+        <v>40.57247601245283</v>
       </c>
       <c r="L15" t="n">
-        <v>54.55470095326828</v>
+        <v>54.55470095326826</v>
       </c>
       <c r="M15" t="n">
-        <v>63.66276283345739</v>
+        <v>63.66276283345736</v>
       </c>
       <c r="N15" t="n">
-        <v>65.34772673119595</v>
+        <v>65.34772673119592</v>
       </c>
       <c r="O15" t="n">
-        <v>59.78040324435803</v>
+        <v>59.780403244358</v>
       </c>
       <c r="P15" t="n">
-        <v>47.97904393704463</v>
+        <v>47.97904393704461</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.07272026146693</v>
+        <v>32.07272026146691</v>
       </c>
       <c r="R15" t="n">
-        <v>15.59996660326161</v>
+        <v>15.5999666032616</v>
       </c>
       <c r="S15" t="n">
-        <v>4.666986335462902</v>
+        <v>4.666986335462901</v>
       </c>
       <c r="T15" t="n">
-        <v>1.012741544814737</v>
+        <v>1.012741544814736</v>
       </c>
       <c r="U15" t="n">
         <v>0.01653005785878243</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2106453274682001</v>
+        <v>0.2106453274682</v>
       </c>
       <c r="H16" t="n">
-        <v>1.872828456944544</v>
+        <v>1.872828456944543</v>
       </c>
       <c r="I16" t="n">
-        <v>6.334679484225511</v>
+        <v>6.334679484225508</v>
       </c>
       <c r="J16" t="n">
-        <v>14.89262465200175</v>
+        <v>14.89262465200174</v>
       </c>
       <c r="K16" t="n">
-        <v>24.47315713675997</v>
+        <v>24.47315713675996</v>
       </c>
       <c r="L16" t="n">
-        <v>31.31721532195405</v>
+        <v>31.31721532195403</v>
       </c>
       <c r="M16" t="n">
-        <v>33.01961255940158</v>
+        <v>33.01961255940157</v>
       </c>
       <c r="N16" t="n">
-        <v>32.23447997520196</v>
+        <v>32.23447997520194</v>
       </c>
       <c r="O16" t="n">
-        <v>29.77375955886888</v>
+        <v>29.77375955886886</v>
       </c>
       <c r="P16" t="n">
-        <v>25.47659487851757</v>
+        <v>25.47659487851756</v>
       </c>
       <c r="Q16" t="n">
         <v>17.6386737391781</v>
       </c>
       <c r="R16" t="n">
-        <v>9.47137990597925</v>
+        <v>9.471379905979246</v>
       </c>
       <c r="S16" t="n">
-        <v>3.670973570513995</v>
+        <v>3.670973570513993</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9000300355459457</v>
+        <v>0.9000300355459453</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01148974513462911</v>
+        <v>0.0114897451346291</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4695976235928807</v>
+        <v>0.4695976235928806</v>
       </c>
       <c r="H17" t="n">
         <v>4.80926666262059</v>
@@ -32235,40 +32235,40 @@
         <v>18.10416238356455</v>
       </c>
       <c r="J17" t="n">
-        <v>39.8565113054163</v>
+        <v>39.85651130541628</v>
       </c>
       <c r="K17" t="n">
-        <v>59.73457871210294</v>
+        <v>59.73457871210293</v>
       </c>
       <c r="L17" t="n">
-        <v>74.10602698513358</v>
+        <v>74.10602698513357</v>
       </c>
       <c r="M17" t="n">
-        <v>82.45723372370347</v>
+        <v>82.45723372370345</v>
       </c>
       <c r="N17" t="n">
-        <v>83.79147797173675</v>
+        <v>83.79147797173674</v>
       </c>
       <c r="O17" t="n">
-        <v>79.12191660213504</v>
+        <v>79.12191660213502</v>
       </c>
       <c r="P17" t="n">
-        <v>67.52872526968579</v>
+        <v>67.52872526968576</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.71126037476573</v>
+        <v>50.71126037476572</v>
       </c>
       <c r="R17" t="n">
-        <v>29.49836172301632</v>
+        <v>29.49836172301631</v>
       </c>
       <c r="S17" t="n">
         <v>10.70095584762278</v>
       </c>
       <c r="T17" t="n">
-        <v>2.055663597277837</v>
+        <v>2.055663597277836</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03756780988743045</v>
+        <v>0.03756780988743044</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,37 +32305,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.251256879453493</v>
+        <v>0.2512568794534928</v>
       </c>
       <c r="H18" t="n">
         <v>2.426612493669261</v>
       </c>
       <c r="I18" t="n">
-        <v>8.650730279429473</v>
+        <v>8.650730279429471</v>
       </c>
       <c r="J18" t="n">
-        <v>23.73826508906883</v>
+        <v>23.73826508906882</v>
       </c>
       <c r="K18" t="n">
-        <v>40.57247601245285</v>
+        <v>40.57247601245284</v>
       </c>
       <c r="L18" t="n">
-        <v>54.55470095326828</v>
+        <v>54.55470095326827</v>
       </c>
       <c r="M18" t="n">
-        <v>63.66276283345739</v>
+        <v>63.66276283345737</v>
       </c>
       <c r="N18" t="n">
-        <v>65.34772673119595</v>
+        <v>65.34772673119593</v>
       </c>
       <c r="O18" t="n">
-        <v>59.78040324435803</v>
+        <v>59.78040324435801</v>
       </c>
       <c r="P18" t="n">
-        <v>47.97904393704463</v>
+        <v>47.97904393704462</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.07272026146693</v>
+        <v>32.07272026146692</v>
       </c>
       <c r="R18" t="n">
         <v>15.59996660326161</v>
@@ -32344,7 +32344,7 @@
         <v>4.666986335462902</v>
       </c>
       <c r="T18" t="n">
-        <v>1.012741544814737</v>
+        <v>1.012741544814736</v>
       </c>
       <c r="U18" t="n">
         <v>0.01653005785878243</v>
@@ -32390,25 +32390,25 @@
         <v>1.872828456944544</v>
       </c>
       <c r="I19" t="n">
-        <v>6.334679484225511</v>
+        <v>6.334679484225509</v>
       </c>
       <c r="J19" t="n">
-        <v>14.89262465200175</v>
+        <v>14.89262465200174</v>
       </c>
       <c r="K19" t="n">
         <v>24.47315713675997</v>
       </c>
       <c r="L19" t="n">
-        <v>31.31721532195405</v>
+        <v>31.31721532195404</v>
       </c>
       <c r="M19" t="n">
-        <v>33.01961255940158</v>
+        <v>33.01961255940157</v>
       </c>
       <c r="N19" t="n">
-        <v>32.23447997520196</v>
+        <v>32.23447997520194</v>
       </c>
       <c r="O19" t="n">
-        <v>29.77375955886888</v>
+        <v>29.77375955886887</v>
       </c>
       <c r="P19" t="n">
         <v>25.47659487851757</v>
@@ -32417,13 +32417,13 @@
         <v>17.6386737391781</v>
       </c>
       <c r="R19" t="n">
-        <v>9.47137990597925</v>
+        <v>9.471379905979248</v>
       </c>
       <c r="S19" t="n">
-        <v>3.670973570513995</v>
+        <v>3.670973570513994</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9000300355459457</v>
+        <v>0.9000300355459455</v>
       </c>
       <c r="U19" t="n">
         <v>0.01148974513462911</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4695976235928807</v>
+        <v>0.4695976235928805</v>
       </c>
       <c r="H20" t="n">
-        <v>4.80926666262059</v>
+        <v>4.809266662620589</v>
       </c>
       <c r="I20" t="n">
-        <v>18.10416238356455</v>
+        <v>18.10416238356454</v>
       </c>
       <c r="J20" t="n">
-        <v>39.85651130541629</v>
+        <v>39.85651130541628</v>
       </c>
       <c r="K20" t="n">
-        <v>59.73457871210294</v>
+        <v>59.73457871210292</v>
       </c>
       <c r="L20" t="n">
-        <v>74.10602698513358</v>
+        <v>74.10602698513355</v>
       </c>
       <c r="M20" t="n">
-        <v>82.45723372370347</v>
+        <v>82.45723372370344</v>
       </c>
       <c r="N20" t="n">
-        <v>83.79147797173674</v>
+        <v>83.79147797173671</v>
       </c>
       <c r="O20" t="n">
-        <v>79.12191660213503</v>
+        <v>79.121916602135</v>
       </c>
       <c r="P20" t="n">
-        <v>67.52872526968578</v>
+        <v>67.52872526968575</v>
       </c>
       <c r="Q20" t="n">
-        <v>50.71126037476573</v>
+        <v>50.71126037476571</v>
       </c>
       <c r="R20" t="n">
-        <v>29.49836172301632</v>
+        <v>29.49836172301631</v>
       </c>
       <c r="S20" t="n">
-        <v>10.70095584762278</v>
+        <v>10.70095584762277</v>
       </c>
       <c r="T20" t="n">
-        <v>2.055663597277836</v>
+        <v>2.055663597277835</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03756780988743044</v>
+        <v>0.03756780988743043</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2512568794534929</v>
+        <v>0.2512568794534928</v>
       </c>
       <c r="H21" t="n">
-        <v>2.426612493669261</v>
+        <v>2.42661249366926</v>
       </c>
       <c r="I21" t="n">
-        <v>8.650730279429471</v>
+        <v>8.650730279429469</v>
       </c>
       <c r="J21" t="n">
-        <v>23.73826508906882</v>
+        <v>23.73826508906881</v>
       </c>
       <c r="K21" t="n">
-        <v>40.57247601245285</v>
+        <v>40.57247601245283</v>
       </c>
       <c r="L21" t="n">
-        <v>54.55470095326827</v>
+        <v>54.55470095326826</v>
       </c>
       <c r="M21" t="n">
-        <v>63.66276283345738</v>
+        <v>63.66276283345736</v>
       </c>
       <c r="N21" t="n">
-        <v>65.34772673119595</v>
+        <v>65.34772673119592</v>
       </c>
       <c r="O21" t="n">
-        <v>59.78040324435802</v>
+        <v>59.780403244358</v>
       </c>
       <c r="P21" t="n">
-        <v>47.97904393704462</v>
+        <v>47.97904393704461</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.07272026146692</v>
+        <v>32.07272026146691</v>
       </c>
       <c r="R21" t="n">
-        <v>15.59996660326161</v>
+        <v>15.5999666032616</v>
       </c>
       <c r="S21" t="n">
-        <v>4.666986335462902</v>
+        <v>4.666986335462901</v>
       </c>
       <c r="T21" t="n">
         <v>1.012741544814736</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2106453274682001</v>
+        <v>0.2106453274682</v>
       </c>
       <c r="H22" t="n">
-        <v>1.872828456944544</v>
+        <v>1.872828456944543</v>
       </c>
       <c r="I22" t="n">
-        <v>6.33467948422551</v>
+        <v>6.334679484225508</v>
       </c>
       <c r="J22" t="n">
         <v>14.89262465200174</v>
       </c>
       <c r="K22" t="n">
-        <v>24.47315713675997</v>
+        <v>24.47315713675996</v>
       </c>
       <c r="L22" t="n">
-        <v>31.31721532195404</v>
+        <v>31.31721532195403</v>
       </c>
       <c r="M22" t="n">
-        <v>33.01961255940158</v>
+        <v>33.01961255940157</v>
       </c>
       <c r="N22" t="n">
-        <v>32.23447997520195</v>
+        <v>32.23447997520194</v>
       </c>
       <c r="O22" t="n">
-        <v>29.77375955886887</v>
+        <v>29.77375955886886</v>
       </c>
       <c r="P22" t="n">
-        <v>25.47659487851757</v>
+        <v>25.47659487851756</v>
       </c>
       <c r="Q22" t="n">
         <v>17.6386737391781</v>
       </c>
       <c r="R22" t="n">
-        <v>9.471379905979248</v>
+        <v>9.471379905979246</v>
       </c>
       <c r="S22" t="n">
-        <v>3.670973570513995</v>
+        <v>3.670973570513993</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9000300355459456</v>
+        <v>0.9000300355459453</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01148974513462911</v>
+        <v>0.0114897451346291</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4695976235928807</v>
+        <v>0.4695976235928805</v>
       </c>
       <c r="H23" t="n">
-        <v>4.80926666262059</v>
+        <v>4.809266662620589</v>
       </c>
       <c r="I23" t="n">
-        <v>18.10416238356455</v>
+        <v>18.10416238356454</v>
       </c>
       <c r="J23" t="n">
-        <v>39.8565113054163</v>
+        <v>39.85651130541628</v>
       </c>
       <c r="K23" t="n">
-        <v>59.73457871210294</v>
+        <v>59.73457871210292</v>
       </c>
       <c r="L23" t="n">
-        <v>74.10602698513358</v>
+        <v>74.10602698513355</v>
       </c>
       <c r="M23" t="n">
-        <v>82.45723372370347</v>
+        <v>82.45723372370344</v>
       </c>
       <c r="N23" t="n">
-        <v>83.79147797173675</v>
+        <v>83.79147797173671</v>
       </c>
       <c r="O23" t="n">
-        <v>79.12191660213504</v>
+        <v>79.121916602135</v>
       </c>
       <c r="P23" t="n">
-        <v>67.52872526968579</v>
+        <v>67.52872526968575</v>
       </c>
       <c r="Q23" t="n">
-        <v>50.71126037476573</v>
+        <v>50.71126037476571</v>
       </c>
       <c r="R23" t="n">
-        <v>29.49836172301632</v>
+        <v>29.49836172301631</v>
       </c>
       <c r="S23" t="n">
-        <v>10.70095584762278</v>
+        <v>10.70095584762277</v>
       </c>
       <c r="T23" t="n">
-        <v>2.055663597277837</v>
+        <v>2.055663597277835</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03756780988743045</v>
+        <v>0.03756780988743043</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.251256879453493</v>
+        <v>0.2512568794534928</v>
       </c>
       <c r="H24" t="n">
-        <v>2.426612493669261</v>
+        <v>2.42661249366926</v>
       </c>
       <c r="I24" t="n">
-        <v>8.650730279429473</v>
+        <v>8.650730279429469</v>
       </c>
       <c r="J24" t="n">
-        <v>23.73826508906883</v>
+        <v>23.73826508906881</v>
       </c>
       <c r="K24" t="n">
-        <v>40.57247601245285</v>
+        <v>40.57247601245283</v>
       </c>
       <c r="L24" t="n">
-        <v>54.55470095326828</v>
+        <v>54.55470095326826</v>
       </c>
       <c r="M24" t="n">
-        <v>63.66276283345739</v>
+        <v>63.66276283345736</v>
       </c>
       <c r="N24" t="n">
-        <v>65.34772673119595</v>
+        <v>65.34772673119592</v>
       </c>
       <c r="O24" t="n">
-        <v>59.78040324435803</v>
+        <v>59.780403244358</v>
       </c>
       <c r="P24" t="n">
-        <v>47.97904393704463</v>
+        <v>47.97904393704461</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.07272026146693</v>
+        <v>32.07272026146691</v>
       </c>
       <c r="R24" t="n">
-        <v>15.59996660326161</v>
+        <v>15.5999666032616</v>
       </c>
       <c r="S24" t="n">
-        <v>4.666986335462902</v>
+        <v>4.666986335462901</v>
       </c>
       <c r="T24" t="n">
-        <v>1.012741544814737</v>
+        <v>1.012741544814736</v>
       </c>
       <c r="U24" t="n">
         <v>0.01653005785878243</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2106453274682001</v>
+        <v>0.2106453274682</v>
       </c>
       <c r="H25" t="n">
-        <v>1.872828456944544</v>
+        <v>1.872828456944543</v>
       </c>
       <c r="I25" t="n">
-        <v>6.334679484225511</v>
+        <v>6.334679484225508</v>
       </c>
       <c r="J25" t="n">
-        <v>14.89262465200175</v>
+        <v>14.89262465200174</v>
       </c>
       <c r="K25" t="n">
-        <v>24.47315713675997</v>
+        <v>24.47315713675996</v>
       </c>
       <c r="L25" t="n">
-        <v>31.31721532195405</v>
+        <v>31.31721532195403</v>
       </c>
       <c r="M25" t="n">
-        <v>33.01961255940158</v>
+        <v>33.01961255940157</v>
       </c>
       <c r="N25" t="n">
-        <v>32.23447997520196</v>
+        <v>32.23447997520194</v>
       </c>
       <c r="O25" t="n">
-        <v>29.77375955886888</v>
+        <v>29.77375955886886</v>
       </c>
       <c r="P25" t="n">
-        <v>25.47659487851757</v>
+        <v>25.47659487851756</v>
       </c>
       <c r="Q25" t="n">
         <v>17.6386737391781</v>
       </c>
       <c r="R25" t="n">
-        <v>9.47137990597925</v>
+        <v>9.471379905979246</v>
       </c>
       <c r="S25" t="n">
-        <v>3.670973570513995</v>
+        <v>3.670973570513993</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9000300355459457</v>
+        <v>0.9000300355459453</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01148974513462911</v>
+        <v>0.0114897451346291</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4695976235928807</v>
+        <v>0.4695976235928805</v>
       </c>
       <c r="H26" t="n">
-        <v>4.80926666262059</v>
+        <v>4.809266662620589</v>
       </c>
       <c r="I26" t="n">
-        <v>18.10416238356455</v>
+        <v>18.10416238356454</v>
       </c>
       <c r="J26" t="n">
-        <v>39.8565113054163</v>
+        <v>39.85651130541628</v>
       </c>
       <c r="K26" t="n">
-        <v>59.73457871210294</v>
+        <v>59.73457871210292</v>
       </c>
       <c r="L26" t="n">
-        <v>74.10602698513358</v>
+        <v>74.10602698513355</v>
       </c>
       <c r="M26" t="n">
-        <v>82.45723372370347</v>
+        <v>82.45723372370344</v>
       </c>
       <c r="N26" t="n">
-        <v>83.79147797173675</v>
+        <v>83.79147797173671</v>
       </c>
       <c r="O26" t="n">
-        <v>79.12191660213504</v>
+        <v>79.121916602135</v>
       </c>
       <c r="P26" t="n">
-        <v>67.52872526968579</v>
+        <v>67.52872526968575</v>
       </c>
       <c r="Q26" t="n">
-        <v>50.71126037476573</v>
+        <v>50.71126037476571</v>
       </c>
       <c r="R26" t="n">
-        <v>29.49836172301632</v>
+        <v>29.49836172301631</v>
       </c>
       <c r="S26" t="n">
-        <v>10.70095584762278</v>
+        <v>10.70095584762277</v>
       </c>
       <c r="T26" t="n">
-        <v>2.055663597277837</v>
+        <v>2.055663597277835</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03756780988743045</v>
+        <v>0.03756780988743043</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.251256879453493</v>
+        <v>0.2512568794534928</v>
       </c>
       <c r="H27" t="n">
-        <v>2.426612493669261</v>
+        <v>2.42661249366926</v>
       </c>
       <c r="I27" t="n">
-        <v>8.650730279429473</v>
+        <v>8.650730279429469</v>
       </c>
       <c r="J27" t="n">
-        <v>23.73826508906883</v>
+        <v>23.73826508906881</v>
       </c>
       <c r="K27" t="n">
-        <v>40.57247601245285</v>
+        <v>40.57247601245283</v>
       </c>
       <c r="L27" t="n">
-        <v>54.55470095326828</v>
+        <v>54.55470095326826</v>
       </c>
       <c r="M27" t="n">
-        <v>63.66276283345739</v>
+        <v>63.66276283345736</v>
       </c>
       <c r="N27" t="n">
-        <v>65.34772673119595</v>
+        <v>65.34772673119592</v>
       </c>
       <c r="O27" t="n">
-        <v>59.78040324435803</v>
+        <v>59.780403244358</v>
       </c>
       <c r="P27" t="n">
-        <v>47.97904393704463</v>
+        <v>47.97904393704461</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.07272026146693</v>
+        <v>32.07272026146691</v>
       </c>
       <c r="R27" t="n">
-        <v>15.59996660326161</v>
+        <v>15.5999666032616</v>
       </c>
       <c r="S27" t="n">
-        <v>4.666986335462902</v>
+        <v>4.666986335462901</v>
       </c>
       <c r="T27" t="n">
-        <v>1.012741544814737</v>
+        <v>1.012741544814736</v>
       </c>
       <c r="U27" t="n">
         <v>0.01653005785878243</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2106453274682001</v>
+        <v>0.2106453274682</v>
       </c>
       <c r="H28" t="n">
-        <v>1.872828456944544</v>
+        <v>1.872828456944543</v>
       </c>
       <c r="I28" t="n">
-        <v>6.334679484225511</v>
+        <v>6.334679484225508</v>
       </c>
       <c r="J28" t="n">
-        <v>14.89262465200175</v>
+        <v>14.89262465200174</v>
       </c>
       <c r="K28" t="n">
-        <v>24.47315713675997</v>
+        <v>24.47315713675996</v>
       </c>
       <c r="L28" t="n">
-        <v>31.31721532195405</v>
+        <v>31.31721532195403</v>
       </c>
       <c r="M28" t="n">
-        <v>33.01961255940158</v>
+        <v>33.01961255940157</v>
       </c>
       <c r="N28" t="n">
-        <v>32.23447997520196</v>
+        <v>32.23447997520194</v>
       </c>
       <c r="O28" t="n">
-        <v>29.77375955886888</v>
+        <v>29.77375955886886</v>
       </c>
       <c r="P28" t="n">
-        <v>25.47659487851757</v>
+        <v>25.47659487851756</v>
       </c>
       <c r="Q28" t="n">
         <v>17.6386737391781</v>
       </c>
       <c r="R28" t="n">
-        <v>9.47137990597925</v>
+        <v>9.471379905979246</v>
       </c>
       <c r="S28" t="n">
-        <v>3.670973570513995</v>
+        <v>3.670973570513993</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9000300355459457</v>
+        <v>0.9000300355459453</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01148974513462911</v>
+        <v>0.0114897451346291</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4695976235928803</v>
+        <v>0.4695976235928807</v>
       </c>
       <c r="H29" t="n">
-        <v>4.809266662620587</v>
+        <v>4.80926666262059</v>
       </c>
       <c r="I29" t="n">
-        <v>18.10416238356454</v>
+        <v>18.10416238356455</v>
       </c>
       <c r="J29" t="n">
-        <v>39.85651130541626</v>
+        <v>39.8565113054163</v>
       </c>
       <c r="K29" t="n">
-        <v>59.73457871210289</v>
+        <v>59.73457871210294</v>
       </c>
       <c r="L29" t="n">
-        <v>74.10602698513352</v>
+        <v>74.10602698513358</v>
       </c>
       <c r="M29" t="n">
-        <v>82.45723372370341</v>
+        <v>82.45723372370347</v>
       </c>
       <c r="N29" t="n">
-        <v>83.79147797173668</v>
+        <v>83.79147797173675</v>
       </c>
       <c r="O29" t="n">
-        <v>79.12191660213497</v>
+        <v>79.12191660213504</v>
       </c>
       <c r="P29" t="n">
-        <v>67.52872526968574</v>
+        <v>67.52872526968579</v>
       </c>
       <c r="Q29" t="n">
-        <v>50.71126037476569</v>
+        <v>50.71126037476573</v>
       </c>
       <c r="R29" t="n">
-        <v>29.49836172301629</v>
+        <v>29.49836172301632</v>
       </c>
       <c r="S29" t="n">
-        <v>10.70095584762277</v>
+        <v>10.70095584762278</v>
       </c>
       <c r="T29" t="n">
-        <v>2.055663597277835</v>
+        <v>2.055663597277837</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03756780988743041</v>
+        <v>0.03756780988743045</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2512568794534927</v>
+        <v>0.251256879453493</v>
       </c>
       <c r="H30" t="n">
-        <v>2.426612493669259</v>
+        <v>2.426612493669261</v>
       </c>
       <c r="I30" t="n">
-        <v>8.650730279429466</v>
+        <v>8.650730279429473</v>
       </c>
       <c r="J30" t="n">
-        <v>23.7382650890688</v>
+        <v>23.73826508906883</v>
       </c>
       <c r="K30" t="n">
-        <v>40.57247601245282</v>
+        <v>40.57247601245285</v>
       </c>
       <c r="L30" t="n">
-        <v>54.55470095326824</v>
+        <v>54.55470095326828</v>
       </c>
       <c r="M30" t="n">
-        <v>63.66276283345733</v>
+        <v>63.66276283345739</v>
       </c>
       <c r="N30" t="n">
-        <v>65.34772673119591</v>
+        <v>65.34772673119595</v>
       </c>
       <c r="O30" t="n">
-        <v>59.78040324435798</v>
+        <v>59.78040324435803</v>
       </c>
       <c r="P30" t="n">
-        <v>47.97904393704459</v>
+        <v>47.97904393704463</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.0727202614669</v>
+        <v>32.07272026146693</v>
       </c>
       <c r="R30" t="n">
-        <v>15.5999666032616</v>
+        <v>15.59996660326161</v>
       </c>
       <c r="S30" t="n">
-        <v>4.666986335462899</v>
+        <v>4.666986335462902</v>
       </c>
       <c r="T30" t="n">
-        <v>1.012741544814736</v>
+        <v>1.012741544814737</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01653005785878242</v>
+        <v>0.01653005785878243</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2106453274681999</v>
+        <v>0.2106453274682001</v>
       </c>
       <c r="H31" t="n">
-        <v>1.872828456944543</v>
+        <v>1.872828456944544</v>
       </c>
       <c r="I31" t="n">
-        <v>6.334679484225505</v>
+        <v>6.334679484225511</v>
       </c>
       <c r="J31" t="n">
-        <v>14.89262465200173</v>
+        <v>14.89262465200175</v>
       </c>
       <c r="K31" t="n">
-        <v>24.47315713675995</v>
+        <v>24.47315713675997</v>
       </c>
       <c r="L31" t="n">
-        <v>31.31721532195402</v>
+        <v>31.31721532195405</v>
       </c>
       <c r="M31" t="n">
-        <v>33.01961255940155</v>
+        <v>33.01961255940158</v>
       </c>
       <c r="N31" t="n">
-        <v>32.23447997520193</v>
+        <v>32.23447997520196</v>
       </c>
       <c r="O31" t="n">
-        <v>29.77375955886885</v>
+        <v>29.77375955886888</v>
       </c>
       <c r="P31" t="n">
-        <v>25.47659487851755</v>
+        <v>25.47659487851757</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.63867373917809</v>
+        <v>17.6386737391781</v>
       </c>
       <c r="R31" t="n">
-        <v>9.471379905979243</v>
+        <v>9.47137990597925</v>
       </c>
       <c r="S31" t="n">
-        <v>3.670973570513992</v>
+        <v>3.670973570513995</v>
       </c>
       <c r="T31" t="n">
-        <v>0.900030035545945</v>
+        <v>0.9000300355459457</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0114897451346291</v>
+        <v>0.01148974513462911</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4695976235928803</v>
+        <v>0.4695976235928804</v>
       </c>
       <c r="H32" t="n">
         <v>4.809266662620587</v>
@@ -33420,10 +33420,10 @@
         <v>18.10416238356454</v>
       </c>
       <c r="J32" t="n">
-        <v>39.85651130541626</v>
+        <v>39.85651130541627</v>
       </c>
       <c r="K32" t="n">
-        <v>59.73457871210289</v>
+        <v>59.7345787121029</v>
       </c>
       <c r="L32" t="n">
         <v>74.10602698513352</v>
@@ -33432,10 +33432,10 @@
         <v>82.45723372370341</v>
       </c>
       <c r="N32" t="n">
-        <v>83.79147797173668</v>
+        <v>83.7914779717367</v>
       </c>
       <c r="O32" t="n">
-        <v>79.12191660213497</v>
+        <v>79.12191660213499</v>
       </c>
       <c r="P32" t="n">
         <v>67.52872526968574</v>
@@ -33444,7 +33444,7 @@
         <v>50.71126037476569</v>
       </c>
       <c r="R32" t="n">
-        <v>29.49836172301629</v>
+        <v>29.4983617230163</v>
       </c>
       <c r="S32" t="n">
         <v>10.70095584762277</v>
@@ -33453,7 +33453,7 @@
         <v>2.055663597277835</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03756780988743041</v>
+        <v>0.03756780988743042</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,16 +33499,16 @@
         <v>8.650730279429466</v>
       </c>
       <c r="J33" t="n">
-        <v>23.7382650890688</v>
+        <v>23.73826508906881</v>
       </c>
       <c r="K33" t="n">
         <v>40.57247601245282</v>
       </c>
       <c r="L33" t="n">
-        <v>54.55470095326824</v>
+        <v>54.55470095326825</v>
       </c>
       <c r="M33" t="n">
-        <v>63.66276283345733</v>
+        <v>63.66276283345734</v>
       </c>
       <c r="N33" t="n">
         <v>65.34772673119591</v>
@@ -33526,7 +33526,7 @@
         <v>15.5999666032616</v>
       </c>
       <c r="S33" t="n">
-        <v>4.666986335462899</v>
+        <v>4.6669863354629</v>
       </c>
       <c r="T33" t="n">
         <v>1.012741544814736</v>
@@ -33575,10 +33575,10 @@
         <v>1.872828456944543</v>
       </c>
       <c r="I34" t="n">
-        <v>6.334679484225505</v>
+        <v>6.334679484225506</v>
       </c>
       <c r="J34" t="n">
-        <v>14.89262465200173</v>
+        <v>14.89262465200174</v>
       </c>
       <c r="K34" t="n">
         <v>24.47315713675995</v>
@@ -33587,16 +33587,16 @@
         <v>31.31721532195402</v>
       </c>
       <c r="M34" t="n">
-        <v>33.01961255940155</v>
+        <v>33.01961255940156</v>
       </c>
       <c r="N34" t="n">
         <v>32.23447997520193</v>
       </c>
       <c r="O34" t="n">
-        <v>29.77375955886885</v>
+        <v>29.77375955886886</v>
       </c>
       <c r="P34" t="n">
-        <v>25.47659487851755</v>
+        <v>25.47659487851756</v>
       </c>
       <c r="Q34" t="n">
         <v>17.63867373917809</v>
@@ -33605,10 +33605,10 @@
         <v>9.471379905979243</v>
       </c>
       <c r="S34" t="n">
-        <v>3.670973570513992</v>
+        <v>3.670973570513993</v>
       </c>
       <c r="T34" t="n">
-        <v>0.900030035545945</v>
+        <v>0.9000300355459451</v>
       </c>
       <c r="U34" t="n">
         <v>0.0114897451346291</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M2" t="n">
         <v>135.7293992974318</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.51958086843889</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="P2" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>130.2453831642022</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="L3" t="n">
-        <v>69.38260888833734</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q3" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>33.9436239844883</v>
+        <v>33.94362398448833</v>
       </c>
       <c r="L4" t="n">
         <v>101.6233125255146</v>
@@ -34941,19 +34941,19 @@
         <v>135.7293992974318</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97.86286533098477</v>
+      </c>
+      <c r="P5" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97.8628653309848</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35017,10 +35017,10 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M6" t="n">
         <v>135.7293992974318</v>
@@ -35029,10 +35029,10 @@
         <v>69.38260888833734</v>
       </c>
       <c r="O6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
-        <v>57.51958086843886</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="P8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>57.51958086843889</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>135.7293992974318</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>69.38260888833734</v>
+      </c>
+      <c r="N9" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="N9" t="n">
-        <v>69.38260888833734</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>112.5823136011796</v>
       </c>
       <c r="K11" t="n">
-        <v>302.3006110805704</v>
+        <v>302.3006110805703</v>
       </c>
       <c r="L11" t="n">
         <v>425.5053937376045</v>
@@ -35421,7 +35421,7 @@
         <v>479.6685127672266</v>
       </c>
       <c r="N11" t="n">
-        <v>465.944365535086</v>
+        <v>465.9443655350859</v>
       </c>
       <c r="O11" t="n">
         <v>387.2073554635834</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>272.3811149621384</v>
       </c>
       <c r="L12" t="n">
         <v>424.0717162766174</v>
@@ -35500,7 +35500,7 @@
         <v>553.5954431468174</v>
       </c>
       <c r="N12" t="n">
-        <v>581.7776723101072</v>
+        <v>260.2446020949785</v>
       </c>
       <c r="O12" t="n">
         <v>455.9419696929953</v>
@@ -35509,7 +35509,7 @@
         <v>353.1264371448196</v>
       </c>
       <c r="Q12" t="n">
-        <v>142.286047620188</v>
+        <v>191.4380028731782</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.33865405138605</v>
+        <v>59.33865405138602</v>
       </c>
       <c r="K13" t="n">
-        <v>162.3194767206016</v>
+        <v>162.3194767206015</v>
       </c>
       <c r="L13" t="n">
         <v>236.843223446822</v>
@@ -35585,10 +35585,10 @@
         <v>233.1346839417471</v>
       </c>
       <c r="P13" t="n">
-        <v>192.9838194961919</v>
+        <v>192.9838194961918</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.38940140568356</v>
+        <v>83.38940140568351</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>112.5823136011796</v>
       </c>
       <c r="K14" t="n">
-        <v>302.3006110805704</v>
+        <v>302.3006110805703</v>
       </c>
       <c r="L14" t="n">
         <v>425.5053937376045</v>
@@ -35658,10 +35658,10 @@
         <v>479.6685127672266</v>
       </c>
       <c r="N14" t="n">
-        <v>465.944365535086</v>
+        <v>465.9443655350859</v>
       </c>
       <c r="O14" t="n">
-        <v>387.2073554635835</v>
+        <v>387.2073554635834</v>
       </c>
       <c r="P14" t="n">
         <v>297.9902368414567</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>84.60103936493363</v>
+        <v>84.6010393649336</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>290.3187216586937</v>
+        <v>424.0717162766174</v>
       </c>
       <c r="M15" t="n">
         <v>553.5954431468174</v>
       </c>
       <c r="N15" t="n">
-        <v>581.7776723101072</v>
+        <v>448.0246776921836</v>
       </c>
       <c r="O15" t="n">
         <v>455.9419696929953</v>
@@ -35746,7 +35746,7 @@
         <v>353.1264371448196</v>
       </c>
       <c r="Q15" t="n">
-        <v>191.4380028731783</v>
+        <v>191.4380028731782</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.33865405138606</v>
+        <v>59.33865405138599</v>
       </c>
       <c r="K16" t="n">
-        <v>162.3194767206016</v>
+        <v>162.3194767206015</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8432234468223</v>
+        <v>236.8432234468219</v>
       </c>
       <c r="M16" t="n">
-        <v>256.1076678836051</v>
+        <v>256.107667883605</v>
       </c>
       <c r="N16" t="n">
         <v>255.7557025943536</v>
@@ -35822,10 +35822,10 @@
         <v>233.1346839417471</v>
       </c>
       <c r="P16" t="n">
-        <v>192.9838194961919</v>
+        <v>192.9838194961918</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.38940140568356</v>
+        <v>83.38940140568531</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>465.944365535086</v>
       </c>
       <c r="O17" t="n">
-        <v>387.2073554635835</v>
+        <v>387.2073554635834</v>
       </c>
       <c r="P17" t="n">
         <v>297.9902368414567</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>58.41678112124827</v>
+        <v>58.41678112124826</v>
       </c>
       <c r="L19" t="n">
         <v>132.9405278474687</v>
@@ -36059,7 +36059,7 @@
         <v>129.2319883423938</v>
       </c>
       <c r="P19" t="n">
-        <v>89.08112389683858</v>
+        <v>89.08112389683856</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>112.5823136011796</v>
       </c>
       <c r="K20" t="n">
-        <v>302.3006110805704</v>
+        <v>302.3006110805703</v>
       </c>
       <c r="L20" t="n">
         <v>425.5053937376045</v>
@@ -36132,7 +36132,7 @@
         <v>479.6685127672266</v>
       </c>
       <c r="N20" t="n">
-        <v>465.944365535086</v>
+        <v>465.9443655350859</v>
       </c>
       <c r="O20" t="n">
         <v>387.2073554635834</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>84.60103936493361</v>
+        <v>84.6010393649336</v>
       </c>
       <c r="K21" t="n">
         <v>272.3811149621384</v>
@@ -36296,7 +36296,7 @@
         <v>129.2319883423938</v>
       </c>
       <c r="P22" t="n">
-        <v>89.08112389683858</v>
+        <v>89.08112389683856</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>112.5823136011796</v>
       </c>
       <c r="K23" t="n">
-        <v>302.3006110805704</v>
+        <v>302.3006110805703</v>
       </c>
       <c r="L23" t="n">
         <v>425.5053937376045</v>
@@ -36369,10 +36369,10 @@
         <v>479.6685127672266</v>
       </c>
       <c r="N23" t="n">
-        <v>465.944365535086</v>
+        <v>465.9443655350859</v>
       </c>
       <c r="O23" t="n">
-        <v>387.2073554635835</v>
+        <v>387.2073554635834</v>
       </c>
       <c r="P23" t="n">
         <v>297.9902368414567</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>142.2860476201881</v>
+        <v>272.3811149621384</v>
       </c>
       <c r="L24" t="n">
         <v>424.0717162766174</v>
@@ -36454,7 +36454,7 @@
         <v>455.9419696929953</v>
       </c>
       <c r="P24" t="n">
-        <v>353.1264371448196</v>
+        <v>223.0313698028691</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>58.41678112124827</v>
+        <v>58.41678112124826</v>
       </c>
       <c r="L25" t="n">
         <v>132.9405278474687</v>
@@ -36533,7 +36533,7 @@
         <v>129.2319883423938</v>
       </c>
       <c r="P25" t="n">
-        <v>89.08112389683858</v>
+        <v>89.08112389683856</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>112.5823136011796</v>
       </c>
       <c r="K26" t="n">
-        <v>302.3006110805704</v>
+        <v>302.3006110805703</v>
       </c>
       <c r="L26" t="n">
         <v>425.5053937376045</v>
@@ -36606,10 +36606,10 @@
         <v>479.6685127672266</v>
       </c>
       <c r="N26" t="n">
-        <v>465.944365535086</v>
+        <v>465.9443655350859</v>
       </c>
       <c r="O26" t="n">
-        <v>387.2073554635835</v>
+        <v>387.2073554635834</v>
       </c>
       <c r="P26" t="n">
         <v>297.9902368414567</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.33865405138607</v>
+        <v>59.33865405138604</v>
       </c>
       <c r="K28" t="n">
         <v>162.3194767206016</v>
@@ -36773,7 +36773,7 @@
         <v>192.9838194961919</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.38940140568357</v>
+        <v>83.38940140568354</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>112.5823136011795</v>
+        <v>112.5823136011796</v>
       </c>
       <c r="K29" t="n">
-        <v>302.3006110805703</v>
+        <v>302.3006110805704</v>
       </c>
       <c r="L29" t="n">
-        <v>425.5053937376044</v>
+        <v>425.5053937376045</v>
       </c>
       <c r="M29" t="n">
         <v>479.6685127672266</v>
       </c>
       <c r="N29" t="n">
-        <v>465.9443655350859</v>
+        <v>465.944365535086</v>
       </c>
       <c r="O29" t="n">
-        <v>387.2073554635834</v>
+        <v>387.2073554635835</v>
       </c>
       <c r="P29" t="n">
-        <v>297.9902368414566</v>
+        <v>297.9902368414567</v>
       </c>
       <c r="Q29" t="n">
-        <v>146.0973752096515</v>
+        <v>146.0973752096516</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>84.60103936493363</v>
       </c>
       <c r="K30" t="n">
-        <v>142.2860476201881</v>
+        <v>272.3811149621384</v>
       </c>
       <c r="L30" t="n">
         <v>424.0717162766174</v>
@@ -36922,16 +36922,16 @@
         <v>553.5954431468174</v>
       </c>
       <c r="N30" t="n">
-        <v>581.7776723101072</v>
+        <v>175.6435627300451</v>
       </c>
       <c r="O30" t="n">
-        <v>455.9419696929952</v>
+        <v>455.9419696929953</v>
       </c>
       <c r="P30" t="n">
         <v>353.1264371448196</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>191.4380028731783</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.33865405138603</v>
+        <v>59.33865405138607</v>
       </c>
       <c r="K31" t="n">
-        <v>162.3194767206015</v>
+        <v>162.3194767206016</v>
       </c>
       <c r="L31" t="n">
         <v>236.843223446822</v>
@@ -37010,7 +37010,7 @@
         <v>192.9838194961919</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.38940140568353</v>
+        <v>83.38940140568357</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>84.6010393649336</v>
       </c>
       <c r="K33" t="n">
-        <v>142.2860476201881</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>424.0717162766174</v>
@@ -37162,13 +37162,13 @@
         <v>581.7776723101072</v>
       </c>
       <c r="O33" t="n">
-        <v>455.9419696929952</v>
+        <v>455.9419696929953</v>
       </c>
       <c r="P33" t="n">
         <v>353.1264371448196</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>57.68500825525468</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>84.6010393649336</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>57.68500825525451</v>
       </c>
       <c r="L36" t="n">
-        <v>374.9197610236272</v>
+        <v>424.0717162766174</v>
       </c>
       <c r="M36" t="n">
         <v>553.5954431468174</v>
@@ -37405,7 +37405,7 @@
         <v>353.1264371448196</v>
       </c>
       <c r="Q36" t="n">
-        <v>191.4380028731782</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>297.9902368414566</v>
       </c>
       <c r="Q38" t="n">
-        <v>146.0973752096515</v>
+        <v>146.0973752096517</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>84.6010393649336</v>
       </c>
       <c r="K39" t="n">
         <v>272.3811149621383</v>
@@ -37630,7 +37630,7 @@
         <v>424.0717162766174</v>
       </c>
       <c r="M39" t="n">
-        <v>553.5954431468174</v>
+        <v>147.4613335667553</v>
       </c>
       <c r="N39" t="n">
         <v>581.7776723101072</v>
@@ -37639,10 +37639,10 @@
         <v>455.9419696929952</v>
       </c>
       <c r="P39" t="n">
-        <v>223.0313698028696</v>
+        <v>353.1264371448196</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>191.4380028731782</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.33865405138602</v>
+        <v>59.33865405138604</v>
       </c>
       <c r="K43" t="n">
-        <v>162.3194767206015</v>
+        <v>162.3194767206016</v>
       </c>
       <c r="L43" t="n">
         <v>236.843223446822</v>
       </c>
       <c r="M43" t="n">
-        <v>256.107667883605</v>
+        <v>256.1076678836051</v>
       </c>
       <c r="N43" t="n">
         <v>255.7557025943536</v>
@@ -37955,10 +37955,10 @@
         <v>233.1346839417471</v>
       </c>
       <c r="P43" t="n">
-        <v>192.9838194961918</v>
+        <v>192.9838194961919</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.38940140568351</v>
+        <v>83.38940140568354</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>272.3811149621383</v>
       </c>
       <c r="L45" t="n">
-        <v>424.0717162766174</v>
+        <v>293.9766489346671</v>
       </c>
       <c r="M45" t="n">
         <v>553.5954431468174</v>
@@ -38110,13 +38110,13 @@
         <v>581.7776723101072</v>
       </c>
       <c r="O45" t="n">
-        <v>134.4088994778669</v>
+        <v>455.9419696929952</v>
       </c>
       <c r="P45" t="n">
         <v>353.1264371448196</v>
       </c>
       <c r="Q45" t="n">
-        <v>191.4380028731782</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.33865405138604</v>
+        <v>59.33865405138603</v>
       </c>
       <c r="K46" t="n">
         <v>162.3194767206015</v>
@@ -38192,10 +38192,10 @@
         <v>233.1346839417471</v>
       </c>
       <c r="P46" t="n">
-        <v>192.9838194961918</v>
+        <v>192.9838194961919</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.38940140568354</v>
+        <v>83.38940140568353</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
